--- a/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
+++ b/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBILE ID\HoTroKH_TichHopRSSP\DesktopApplicationTool\DesktopApp\DesktopApp\bin\Debug\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBILE ID\HoTroKH_TichHopRSSP\DesktopApplicationTool\DesktopApp\DesktopApp\bin\Release\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,30 +33,30 @@
     <t>Cert Chain</t>
   </si>
   <si>
-    <t xml:space="preserve">"-----BEGIN CERTIFICATE REQUEST-----
+    <t xml:space="preserve">-----BEGIN CERTIFICATE REQUEST-----
 MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBCMRQwEgYDVQQLDAtD
 b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
 DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
-AAOCAQ8AMIIBCgKCAQEAhmrWdY6lMzD13kUxayQsAO09woiNxfkTn+Z28hqm8CvR
-yUZcsNjXUAvCgCKOqjdmMQLFyer7BTDmQtyZE5Y8X3aVtnkvLOCEehYfsRaSekKe
-Ohc4K3S/DtGEIfNNm5iPpbuKhJ7W91R5Dr2i07fEThYyGgB/UvypkGqjP0qQDWj+
-3Vt06/tJqe8JQE7f/K6MfX2YGXLbWJ4iX0473y7iuLq5wGGfE4dlYVcCiJYWLTti
-II29NwUbs8u6QSLZ/O0TFaQwb1r6sRTtO9hOgZ0f8qER0LvXQWjWXTbbFVSEn9iJ
-5pWtT8ABzZC2P92+0qfbcsyW7fQ0UWvXvZvFHwkpIQIDAQABMA0GCSqGSIb3DQEB
-BQUAA4IBAQB19J+jtnbNv+FYWHpLIs3iFoHIX49tgVTDgeTN5VpSZYuTuc+Sdo7N
-Z3K0G0G+AW7gzEkF6YqrPzE7dk8C6W22+yHMFARVMB5QEgDot1XGfn7iRsVTLIjn
-iJxlpB9IE9UIaGB6ONKIvupaEncJbUxRWBISMuY/sDv3Sxv1vgcoHsCEAVvVKyfr
-VPzLBJ4Fz63qHMiAphf9+WAbWE/MQwFBHcdoyXM1067XBSD3vMHyXHmeXMPx43c1
-7Fm3gddsd6sFhcnDRvHxYosiTU0glCOze/o8vgOrONJHDkQ3amnPYjpapgTku1Gm
-IIFdxxbcLC8IEfShvQSEOiIeOpR3iIUp
------END CERTIFICATE REQUEST-----"
+AAOCAQ8AMIIBCgKCAQEAvy/Thl6+6qGCHZrZeyF/nljNv8qTyN5BIQKMusZr9MZQ
++eRFk9OuoulBHQ2UgtpKIwlO70LEIq9pvtnWptB0Zcto6xMh+JqxhZx35zwoZswR
+A6bIjXcpO3ndShJLYMtbJS0LbdPg4nnwq0pYQWWXuvSJYVExIxRpyE4hEF5BrUbH
+0NIS3dCKQVvK8BCe3pdrPrhKKe+zWJDQCIN/p8GHeAQEk25Y4V+2qJx2Uqmcx3ZX
+idZAEPTzMkSR89UsFUCILHBU7vG1uH8ye74f5WnKHHjV84CI5z+uK8Lkd12Sj8Dw
+ILF2KJOomQS1PdAV2ZssD1TH/B03akYTg48hcFyDtQIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQAreJ9jXBvpHpIiGCV+7O8Rsvqjvbaw4vrXY4T4C1JAwjvol53kPTND
+L1MY0M///eO+vHcidxknRsIEOgxcMZB3rgldKZ+FeLUqXGG0LOhXs8wVX1E3Bv1g
+FTtiHZXRe5mYsLN6kFED7rQbZedW18I9yFqW/w/7BRR4TzRqW+QSuCiO+fOQjJpP
+1BAolZ5gJ+GwzylSXiOEXN8ozucNOx7Hjjo9fYw4E6gYPUqk/wJ4X7tbUOnoruTN
+sJ/ncL0NbMPewoErEJ88+VSDXjlxdz56ji+82z+SYezszCoWg0gVADYM2QiIaPzT
+TfEXU6pUD3fu1O+jjjYKmFiwcj8ohrFt
+-----END CERTIFICATE REQUEST-----
 </t>
   </si>
   <si>
+    <t>MIIGZzCCBE+gAwIBAgIMJcSn9Jru5Q1JkgBAMA0GCSqGSIb3DQEBCwUAMIHIMQswCQYDVQQGEwJWTjEUMBIGA1UECBMLSG8gQ2hpIE1pbmgxFDASBgNVBAcTC0hvIENoaSBNaW5oMUAwPgYDVQQKEzdNb2JpbGUtSUQgVGVjaG5vbG9naWVzIGFuZCBTZXJ2aWNlcyBKb2ludCBTdG9jayBDb21wYW55MScwJQYDVQQLEx5Nb2JpbGUtSUQgVGVjaG5pY2FsIERlcGFydG1lbnQxIjAgBgNVBAMTGU1vYmlsZS1JRCBUcnVzdGVkIE5ldHdvcmswHhcNMjIwODA4MDE1MTEyWhcNMjMwODEzMDE1MTEyWjCBlDELMAkGA1UEBhMCVk4xEzARBgNVBAgMCkPhuqduIFRoxqExGjAYBgNVBAoMEU5ndXllbiBWYW4gVGVzdCAyMRcwFQYDVQQLDA5Db25nIFR5IEFCQ0QgMjEaMBgGA1UEAwwRTmd1eWVuIFZhbiBUZXN0IDIxHzAdBgoJkiaJk/IsZAEBDA9NU1Q6MTIzNDU2NzgwMDUwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQC/L9OGXr7qoYIdmtl7IX+eWM2/ypPI3kEhAoy6xmv0xlD55EWT066i6UEdDZSC2kojCU7vQsQir2m+2dam0HRly2jrEyH4mrGFnHfnPChmzBEDpsiNdyk7ed1KEktgy1slLQtt0+DiefCrSlhBZZe69IlhUTEjFGnITiEQXkGtRsfQ0hLd0IpBW8rwEJ7el2s+uEop77NYkNAIg3+nwYd4BASTbljhX7aonHZSqZzHdleJ1kAQ9PMyRJHz1SwVQIgscFTu8bW4fzJ7vh/lacoceNXzgIjnP64rwuR3XZKPwPAgsXYok6iZBLU90BXZmywPVMf8HTdqRhODjyFwXIO1AgMBAAGjggGBMIIBfTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFPNkMn2yPF3lLuBJfLTqYhWUeC6rMHIGCCsGAQUFBwEBBGYwZDAyBggrBgEFBQcwAoYmaHR0cHM6Ly9tb2JpbGUtaWQudm4vcGtpL21vYmlsZS1pZC5jcnQwLgYIKwYBBQUHMAGGImh0dHA6Ly9tb2JpbGUtaWQudm4vb2NzcC9yZXNwb25kZXIwRQYDVR0gBD4wPDA6BgsrBgEEAYHtAwEEATArMCkGCCsGAQUFBwIBFh1odHRwczovL21vYmlsZS1pZC52bi9jcHMuaHRtbDA0BgNVHSUELTArBggrBgEFBQcDAgYIKwYBBQUHAwQGCisGAQQBgjcKAwwGCSqGSIb3LwEBBTAsBgNVHR8EJTAjMCGgH6AdhhtodHRwOi8vbW9iaWxlLWlkLnZuL2NybC9nZXQwHQYDVR0OBBYEFNe71pRVjX8AejArwTVdZgYfUjCSMA4GA1UdDwEB/wQEAwIE8DANBgkqhkiG9w0BAQsFAAOCAgEAVQTzptjr+GH7Yav1VAK7DEiklPamC1QJQQfrTu3AZxcbD9H1lHMCGdhrJcX4AJFMyaGrsQvfYEAwpWpfk9h2mUmFsTSyrvMU3xUeIs+wMSibQwhALM97yc0dmCt8YcMzVreITeCismFidJq62RVB4CwPoWpAkRC8Iup3pv6B5nASKFe3MVpBYELD+/dXOh66x5vaWdo3GAn1XEXMc16PZqhtHlThgabq94WQwosV9dE4bcGlY2dJl22D4zg4NmytTO04pBSqLEz3dCEbZbn9gcCM+8oGX4XjuRFp4To2r9aYOcYfZsQL6JJya3Erv3jaTc0x1ouhxrMTS9qjQvoOMsLCUnOXjAt96mUYdHPfETb0lJki9XNn2vlmqIuKzI2y0ZmQcJWyh5jiKIyFLhEU+vCvSoijLw+AKFgONG9wbnenOkr3VLrI7ZzeEUtGAtI8Vyu3XJEivKOLh330qGrNfsm+xbrXQZjtZ/I2RUaWAndVg8LeGt8RlQQ3g7IVEripxKQn0z7rhIRHqcTa/o0nZXYdxvS6tqyvEOFz0CkReOEbIr8bQyHhtPDErakQOLrYHrW9h64LoLygI2qhzD7VfAFujlfgg+9f/UIylcAOLO8kX4JhbXNxdW1NSdDwdQLxqxw5hSRNbNN792wgw3QTApFTOhQlfvuGyA1MZ6B6UQE=</t>
+  </si>
+  <si>
     <t>MIIGRDCCBCygAwIBAgIEVfAPITANBgkqhkiG9w0BAQsFADCByDELMAkGA1UEBhMCVk4xFDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFAMD4GA1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9pbnQgU3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBEZXBhcnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMCAXDTE3MDQyMTAyNTA1MVoYDzIxMTcwMzI4MDI1MDUxWjCByDELMAkGA1UEBhMCVk4xFDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFAMD4GA1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9pbnQgU3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBEZXBhcnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMIICIjANBgkqhkiG9w0BAQEFAAOCAg8AMIICCgKCAgEAjtHJbKRUfVPE3vr7SjROLgQYO1bTi+WgIinSsLn9XGj7gjO4cx8ejs9I8IGrx2q5Wzcrcavi5nxRzoKbO8EVkR+F69UxgF54e8Nfe76i3v8BGTk8vngpvQrndN8uE6YiQ/G0s5hLi/gZfffcMTlMQrlwYdRpEMhn6nNoF675xpaBk15+epa7SjXbgGvCkA0CkR+SKvhd4pnMORZ2/jpQvLG5DQIzQLApAmWHcoexFxTgPzuw2qhinWPO07X/H5pz5dAAKhflI451OG2PZCloZEo1lemmspm3azFlaYzkbLPI+GsV61PB/AQEIKq9tXLCuyYbpXYqOlbFP8LYGyfumdOwS2/LFKwHGLAdlofCGI0eMp/dsa+aL+My8Rqv0S0PhClcnvDaSCIYBPDgI5wW4u/sr3Wz5n5f4Z3k5vJi0GU8l0FroNsFCN8EOc/vM+wgm+Uol74FrEo0LpT8TUWh71HUF29sBxtEQ8Zw5YpUMCTcPuBsVRwuLGGae8VKpPc4jEwpGmvoGj8cfS2qoEMNPtRnGM3Kt+q39zLoDk+6Kmr5oi8XVfZmibXRtNvrixMj6jAEm/3Vag9VdQ4SR+QFwpJOcIOBtX9mDnamXnBHWFqGUqOUU9/6y4p8B2o3RDE/WeiWtU66gQZasli6TJb0RpNoY/XyXHGn+J0gd9EDXn0CAwEAAaMyMDAwDwYDVR0TAQH/BAUwAwEB/zAdBgNVHQ4EFgQU82QyfbI8XeUu4El8tOpiFZR4LqswDQYJKoZIhvcNAQELBQADggIBAI3hBTzed1ZtDh5DvdidSJoGRBXJQ24Y3VjxPbelLNxnZiYCiSIQhL7KIjmDZOBQJwqlBxWOsao7PuRaohdAcDQ2jImeiIAmkRaTcUWZgB++IuS1ta01XMcAEp/taQEjHKjwAr22IILNVk9z0WNVf5Pd9NWMu4lFqwECpKTJnToIqEGVVWcqAAupGT64LQ/Cf+/oEpDtkRaVazFj7ob1Rxjl5hmOxMwNHW8wRPcq8glg+26Tp9jqcaw32fhfnUPDHBdoYcU/VhMkgBeYXGHTPHp32Kj4l/QxWnxY0IvChyq+Qao1D19K5PbJQH5A5bQbwqgBtMihsdrGSr9VJ7LtNmBc+8dNchqi2uXs3ryk8htDluZ60yWK89eRO1NatB2tiDLh5iwejJRieOoyQ3Iq8m/IjtEJTs7ehWJHtiGj2U/tlpVW2fSszoz0TbKxXQPQ/dGNmDorqrM/0WEY6lkNEp7qbXB1U378PFUKFh1lIdlfNrgoEvYt0XeIMbXn+fUkB8munP0bCSiJqX7gK+2FuZqfA038JfuwxDBr8SvkkvZOqyUgMPAPRpQCjmFrZgMrilHUokZIL5+Cz4qaxEf3s3xORy+CuPMousfrOKpdf6jFjnyD8cr4Ez4bMAekPg4F4JJ0WHpOchSlDP5a57cb6mHYvOF8ygSobADyNeQ1jkjg</t>
-  </si>
-  <si>
-    <t>MIIGejCCBGKgAwIBAgIMTWIp3U9d251FXlVaMA0GCSqGSIb3DQEBCwUAMIHIMQswCQYDVQQGEwJWTjEUMBIGA1UECBMLSG8gQ2hpIE1pbmgxFDASBgNVBAcTC0hvIENoaSBNaW5oMUAwPgYDVQQKEzdNb2JpbGUtSUQgVGVjaG5vbG9naWVzIGFuZCBTZXJ2aWNlcyBKb2ludCBTdG9jayBDb21wYW55MScwJQYDVQQLEx5Nb2JpbGUtSUQgVGVjaG5pY2FsIERlcGFydG1lbnQxIjAgBgNVBAMTGU1vYmlsZS1JRCBUcnVzdGVkIE5ldHdvcmswHhcNMjIwODA0MDg1NDAwWhcNMjMwODA5MDg1NDAwWjCBpzELMAkGA1UEBhMCVk4xFzAVBgNVBAgMDkjhu5MgQ2jDrSBNaW5oMRgwFgYDVQQKDA9OZ3V5ZW4gVmFuIFRlc3QxFTATBgNVBAsMDENvbmcgVHkgQUJDRDEYMBYGA1UEAwwPTmd1eWVuIFZhbiBUZXN0MR8wHQYKCZImiZPyLGQBAQwPTVNUOjEyMzQ1Njc4MDA0MRMwEQYDVQQUEwowMTIzNDU2Nzg5MIIBIjANBgkqhkiG9w0BAQEFAAOCAQ8AMIIBCgKCAQEAhmrWdY6lMzD13kUxayQsAO09woiNxfkTn+Z28hqm8CvRyUZcsNjXUAvCgCKOqjdmMQLFyer7BTDmQtyZE5Y8X3aVtnkvLOCEehYfsRaSekKeOhc4K3S/DtGEIfNNm5iPpbuKhJ7W91R5Dr2i07fEThYyGgB/UvypkGqjP0qQDWj+3Vt06/tJqe8JQE7f/K6MfX2YGXLbWJ4iX0473y7iuLq5wGGfE4dlYVcCiJYWLTtiII29NwUbs8u6QSLZ/O0TFaQwb1r6sRTtO9hOgZ0f8qER0LvXQWjWXTbbFVSEn9iJ5pWtT8ABzZC2P92+0qfbcsyW7fQ0UWvXvZvFHwkpIQIDAQABo4IBgTCCAX0wDAYDVR0TAQH/BAIwADAfBgNVHSMEGDAWgBTzZDJ9sjxd5S7gSXy06mIVlHguqzByBggrBgEFBQcBAQRmMGQwMgYIKwYBBQUHMAKGJmh0dHBzOi8vbW9iaWxlLWlkLnZuL3BraS9tb2JpbGUtaWQuY3J0MC4GCCsGAQUFBzABhiJodHRwOi8vbW9iaWxlLWlkLnZuL29jc3AvcmVzcG9uZGVyMEUGA1UdIAQ+MDwwOgYLKwYBBAGB7QMBBAEwKzApBggrBgEFBQcCARYdaHR0cHM6Ly9tb2JpbGUtaWQudm4vY3BzLmh0bWwwNAYDVR0lBC0wKwYIKwYBBQUHAwIGCCsGAQUFBwMEBgorBgEEAYI3CgMMBgkqhkiG9y8BAQUwLAYDVR0fBCUwIzAhoB+gHYYbaHR0cDovL21vYmlsZS1pZC52bi9jcmwvZ2V0MB0GA1UdDgQWBBT2uDq+0cZWbcPlZHAB7ji3zr71ojAOBgNVHQ8BAf8EBAMCBPAwDQYJKoZIhvcNAQELBQADggIBACljlyNXjSYN1KCkD8k7t6Z0zm1LJfARu7YZfky0qtUwqaObLz3stl1LTPqb4ezF9p2e2JgJXqPqv9vs3J58iE30qzNma7OFd3es0JSn2ioUDqbbIw3tl8F1RW9a74cHnLtiBm8gRHNuJRk3zbwja9zBS4fCIsOX/4OGgpVHafqKCBSJ4AlxxY/oHYObcDZEfaR6ltwqAM1YF9ngj/0w87Lr/vtlT9Vte26ujE4FMSIDq9ct9vM9hIG6HYcLXRc7SqHXm6bnqGaDYTJzSnoexIkCwC5fwL35Q1UGIq8FG7WtepHznaXCDldatT0tRiwF2rpmP6yMWW3Z8H98BQOJx4J/khFWK2DVJxHKnlmvyhHDQvdIptwyPIaCDnNwWH2v6HeA2T7CRVbDo2s1la62aBi/96irHYX+GEgmuMP14cCP60Z6TMdfQ63QVcMKOF8Z27PzT//yYHWECnJLP+S3sKoaWbelPROSG1ecGrFYyt2CkHeQvfyduihNknpa8wwojXc82/mP2NcTbiuK1Sb4qAnn/h0m8XxkHMGoK1lxRcBQNrTJRkFCVJMTSBAo8QgnP9Z7FNSvimq7X3ahp5d4H6JTwji/k6bUw0k57yW27pKiuBu9bQxV6jkXZJmGPcRrRX8t2dubs+3cxLe8V81+a/2AILtb95J1yjtaijCiMhEq</t>
   </si>
 </sst>
 </file>
@@ -92,11 +92,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,18 +400,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
+++ b/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
@@ -37,26 +37,97 @@
 MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBCMRQwEgYDVQQLDAtD
 b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
 DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
-AAOCAQ8AMIIBCgKCAQEAvy/Thl6+6qGCHZrZeyF/nljNv8qTyN5BIQKMusZr9MZQ
-+eRFk9OuoulBHQ2UgtpKIwlO70LEIq9pvtnWptB0Zcto6xMh+JqxhZx35zwoZswR
-A6bIjXcpO3ndShJLYMtbJS0LbdPg4nnwq0pYQWWXuvSJYVExIxRpyE4hEF5BrUbH
-0NIS3dCKQVvK8BCe3pdrPrhKKe+zWJDQCIN/p8GHeAQEk25Y4V+2qJx2Uqmcx3ZX
-idZAEPTzMkSR89UsFUCILHBU7vG1uH8ye74f5WnKHHjV84CI5z+uK8Lkd12Sj8Dw
-ILF2KJOomQS1PdAV2ZssD1TH/B03akYTg48hcFyDtQIDAQABMA0GCSqGSIb3DQEB
-BQUAA4IBAQAreJ9jXBvpHpIiGCV+7O8Rsvqjvbaw4vrXY4T4C1JAwjvol53kPTND
-L1MY0M///eO+vHcidxknRsIEOgxcMZB3rgldKZ+FeLUqXGG0LOhXs8wVX1E3Bv1g
-FTtiHZXRe5mYsLN6kFED7rQbZedW18I9yFqW/w/7BRR4TzRqW+QSuCiO+fOQjJpP
-1BAolZ5gJ+GwzylSXiOEXN8ozucNOx7Hjjo9fYw4E6gYPUqk/wJ4X7tbUOnoruTN
-sJ/ncL0NbMPewoErEJ88+VSDXjlxdz56ji+82z+SYezszCoWg0gVADYM2QiIaPzT
-TfEXU6pUD3fu1O+jjjYKmFiwcj8ohrFt
+AAOCAQ8AMIIBCgKCAQEAkz8TL4dqCIiJ7KnHFBAFe82+5HPYo5xfk1LataHfu4Uj
+xOxCBv6M3F45NHenwi2VZlaclnW2yWU+TitWMTmbWxs5x0JJqxmHzHDclSOAp8Mv
+uTxSR0cxv5OSYoagoiwNE0OcjlYSg3lWISnyGsskYGLa9+GXBE4nquVgS23AiKxH
+5EDEWEBPFraYXFl51OXUm2oztPUMgbhDJRcg2bVZfJrzgFHIcvt8x6UMwYbsSO0U
+bJDXTUyT96BMlAm70g0piu8V6h0firLaD6/+7HKFCMYWYe4q1DbmWGiVxUeZ8cHg
+3iX8xYw1+xCgCFTbsMjBw4ijpApRHg650V9aVecaYwIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQBj9LixX5puB3DPKQsi5EaalujLGnPVWekvAJw/24F3jOABa+r7y1ou
+1BCcgIeopG2NdGJheM3YGD6XzIPjNSVWSeBhGri+QPsRo4I3KFM/waqLQVzE5tZv
+U9sbGVcq4F5iYEV5AWkgXyOr3GBDExsbeej8WsS1cYBOpNMwKBJv/JAhPny7nkkr
+7j51qsZsT/G33UPxXayG6uiAxAUT6IzlKRJfV9hETOauc2m71ybrd3pzbtGBlWIN
+mvESBrGtg6UWbbGboIpCwUIXOIDMORKWnSdBy9itbs8etx8I57YYaqDHV/bD3baQ
+qG7gpHrUvRnuzAAe2PRJ71VElqCyAYLU
 -----END CERTIFICATE REQUEST-----
 </t>
   </si>
   <si>
-    <t>MIIGZzCCBE+gAwIBAgIMJcSn9Jru5Q1JkgBAMA0GCSqGSIb3DQEBCwUAMIHIMQswCQYDVQQGEwJWTjEUMBIGA1UECBMLSG8gQ2hpIE1pbmgxFDASBgNVBAcTC0hvIENoaSBNaW5oMUAwPgYDVQQKEzdNb2JpbGUtSUQgVGVjaG5vbG9naWVzIGFuZCBTZXJ2aWNlcyBKb2ludCBTdG9jayBDb21wYW55MScwJQYDVQQLEx5Nb2JpbGUtSUQgVGVjaG5pY2FsIERlcGFydG1lbnQxIjAgBgNVBAMTGU1vYmlsZS1JRCBUcnVzdGVkIE5ldHdvcmswHhcNMjIwODA4MDE1MTEyWhcNMjMwODEzMDE1MTEyWjCBlDELMAkGA1UEBhMCVk4xEzARBgNVBAgMCkPhuqduIFRoxqExGjAYBgNVBAoMEU5ndXllbiBWYW4gVGVzdCAyMRcwFQYDVQQLDA5Db25nIFR5IEFCQ0QgMjEaMBgGA1UEAwwRTmd1eWVuIFZhbiBUZXN0IDIxHzAdBgoJkiaJk/IsZAEBDA9NU1Q6MTIzNDU2NzgwMDUwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQC/L9OGXr7qoYIdmtl7IX+eWM2/ypPI3kEhAoy6xmv0xlD55EWT066i6UEdDZSC2kojCU7vQsQir2m+2dam0HRly2jrEyH4mrGFnHfnPChmzBEDpsiNdyk7ed1KEktgy1slLQtt0+DiefCrSlhBZZe69IlhUTEjFGnITiEQXkGtRsfQ0hLd0IpBW8rwEJ7el2s+uEop77NYkNAIg3+nwYd4BASTbljhX7aonHZSqZzHdleJ1kAQ9PMyRJHz1SwVQIgscFTu8bW4fzJ7vh/lacoceNXzgIjnP64rwuR3XZKPwPAgsXYok6iZBLU90BXZmywPVMf8HTdqRhODjyFwXIO1AgMBAAGjggGBMIIBfTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFPNkMn2yPF3lLuBJfLTqYhWUeC6rMHIGCCsGAQUFBwEBBGYwZDAyBggrBgEFBQcwAoYmaHR0cHM6Ly9tb2JpbGUtaWQudm4vcGtpL21vYmlsZS1pZC5jcnQwLgYIKwYBBQUHMAGGImh0dHA6Ly9tb2JpbGUtaWQudm4vb2NzcC9yZXNwb25kZXIwRQYDVR0gBD4wPDA6BgsrBgEEAYHtAwEEATArMCkGCCsGAQUFBwIBFh1odHRwczovL21vYmlsZS1pZC52bi9jcHMuaHRtbDA0BgNVHSUELTArBggrBgEFBQcDAgYIKwYBBQUHAwQGCisGAQQBgjcKAwwGCSqGSIb3LwEBBTAsBgNVHR8EJTAjMCGgH6AdhhtodHRwOi8vbW9iaWxlLWlkLnZuL2NybC9nZXQwHQYDVR0OBBYEFNe71pRVjX8AejArwTVdZgYfUjCSMA4GA1UdDwEB/wQEAwIE8DANBgkqhkiG9w0BAQsFAAOCAgEAVQTzptjr+GH7Yav1VAK7DEiklPamC1QJQQfrTu3AZxcbD9H1lHMCGdhrJcX4AJFMyaGrsQvfYEAwpWpfk9h2mUmFsTSyrvMU3xUeIs+wMSibQwhALM97yc0dmCt8YcMzVreITeCismFidJq62RVB4CwPoWpAkRC8Iup3pv6B5nASKFe3MVpBYELD+/dXOh66x5vaWdo3GAn1XEXMc16PZqhtHlThgabq94WQwosV9dE4bcGlY2dJl22D4zg4NmytTO04pBSqLEz3dCEbZbn9gcCM+8oGX4XjuRFp4To2r9aYOcYfZsQL6JJya3Erv3jaTc0x1ouhxrMTS9qjQvoOMsLCUnOXjAt96mUYdHPfETb0lJki9XNn2vlmqIuKzI2y0ZmQcJWyh5jiKIyFLhEU+vCvSoijLw+AKFgONG9wbnenOkr3VLrI7ZzeEUtGAtI8Vyu3XJEivKOLh330qGrNfsm+xbrXQZjtZ/I2RUaWAndVg8LeGt8RlQQ3g7IVEripxKQn0z7rhIRHqcTa/o0nZXYdxvS6tqyvEOFz0CkReOEbIr8bQyHhtPDErakQOLrYHrW9h64LoLygI2qhzD7VfAFujlfgg+9f/UIylcAOLO8kX4JhbXNxdW1NSdDwdQLxqxw5hSRNbNN792wgw3QTApFTOhQlfvuGyA1MZ6B6UQE=</t>
-  </si>
-  <si>
-    <t>MIIGRDCCBCygAwIBAgIEVfAPITANBgkqhkiG9w0BAQsFADCByDELMAkGA1UEBhMCVk4xFDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFAMD4GA1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9pbnQgU3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBEZXBhcnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMCAXDTE3MDQyMTAyNTA1MVoYDzIxMTcwMzI4MDI1MDUxWjCByDELMAkGA1UEBhMCVk4xFDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFAMD4GA1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9pbnQgU3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBEZXBhcnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMIICIjANBgkqhkiG9w0BAQEFAAOCAg8AMIICCgKCAgEAjtHJbKRUfVPE3vr7SjROLgQYO1bTi+WgIinSsLn9XGj7gjO4cx8ejs9I8IGrx2q5Wzcrcavi5nxRzoKbO8EVkR+F69UxgF54e8Nfe76i3v8BGTk8vngpvQrndN8uE6YiQ/G0s5hLi/gZfffcMTlMQrlwYdRpEMhn6nNoF675xpaBk15+epa7SjXbgGvCkA0CkR+SKvhd4pnMORZ2/jpQvLG5DQIzQLApAmWHcoexFxTgPzuw2qhinWPO07X/H5pz5dAAKhflI451OG2PZCloZEo1lemmspm3azFlaYzkbLPI+GsV61PB/AQEIKq9tXLCuyYbpXYqOlbFP8LYGyfumdOwS2/LFKwHGLAdlofCGI0eMp/dsa+aL+My8Rqv0S0PhClcnvDaSCIYBPDgI5wW4u/sr3Wz5n5f4Z3k5vJi0GU8l0FroNsFCN8EOc/vM+wgm+Uol74FrEo0LpT8TUWh71HUF29sBxtEQ8Zw5YpUMCTcPuBsVRwuLGGae8VKpPc4jEwpGmvoGj8cfS2qoEMNPtRnGM3Kt+q39zLoDk+6Kmr5oi8XVfZmibXRtNvrixMj6jAEm/3Vag9VdQ4SR+QFwpJOcIOBtX9mDnamXnBHWFqGUqOUU9/6y4p8B2o3RDE/WeiWtU66gQZasli6TJb0RpNoY/XyXHGn+J0gd9EDXn0CAwEAAaMyMDAwDwYDVR0TAQH/BAUwAwEB/zAdBgNVHQ4EFgQU82QyfbI8XeUu4El8tOpiFZR4LqswDQYJKoZIhvcNAQELBQADggIBAI3hBTzed1ZtDh5DvdidSJoGRBXJQ24Y3VjxPbelLNxnZiYCiSIQhL7KIjmDZOBQJwqlBxWOsao7PuRaohdAcDQ2jImeiIAmkRaTcUWZgB++IuS1ta01XMcAEp/taQEjHKjwAr22IILNVk9z0WNVf5Pd9NWMu4lFqwECpKTJnToIqEGVVWcqAAupGT64LQ/Cf+/oEpDtkRaVazFj7ob1Rxjl5hmOxMwNHW8wRPcq8glg+26Tp9jqcaw32fhfnUPDHBdoYcU/VhMkgBeYXGHTPHp32Kj4l/QxWnxY0IvChyq+Qao1D19K5PbJQH5A5bQbwqgBtMihsdrGSr9VJ7LtNmBc+8dNchqi2uXs3ryk8htDluZ60yWK89eRO1NatB2tiDLh5iwejJRieOoyQ3Iq8m/IjtEJTs7ehWJHtiGj2U/tlpVW2fSszoz0TbKxXQPQ/dGNmDorqrM/0WEY6lkNEp7qbXB1U378PFUKFh1lIdlfNrgoEvYt0XeIMbXn+fUkB8munP0bCSiJqX7gK+2FuZqfA038JfuwxDBr8SvkkvZOqyUgMPAPRpQCjmFrZgMrilHUokZIL5+Cz4qaxEf3s3xORy+CuPMousfrOKpdf6jFjnyD8cr4Ez4bMAekPg4F4JJ0WHpOchSlDP5a57cb6mHYvOF8ygSobADyNeQ1jkjg</t>
+    <t>"-----BEGIN CERTIFICATE-----
+MIIGZDCCBEygAwIBAgIMPRw66sJFvKK12gGJMA0GCSqGSIb3DQEBCwUAMIHIMQsw
+CQYDVQQGEwJWTjEUMBIGA1UECBMLSG8gQ2hpIE1pbmgxFDASBgNVBAcTC0hvIENo
+aSBNaW5oMUAwPgYDVQQKEzdNb2JpbGUtSUQgVGVjaG5vbG9naWVzIGFuZCBTZXJ2
+aWNlcyBKb2ludCBTdG9jayBDb21wYW55MScwJQYDVQQLEx5Nb2JpbGUtSUQgVGVj
+aG5pY2FsIERlcGFydG1lbnQxIjAgBgNVBAMTGU1vYmlsZS1JRCBUcnVzdGVkIE5l
+dHdvcmswHhcNMjIwODA4MDc0OTQ2WhcNMjMwODEzMDc0OTQ2WjCBkTELMAkGA1UE
+BhMCVk4xEjAQBgNVBAgMCUjDoCBO4buZaTEaMBgGA1UECgwRTmd1eWVuIFZhbiBU
+ZXN0IDgxFTATBgNVBAsMDENvbmcgVHkgQUJDRDEaMBgGA1UEAwwRTmd1eWVuIFZh
+biBUZXN0IDgxHzAdBgoJkiaJk/IsZAEBDA9NU1Q6MTIzNDU2NzgwMDgwggEiMA0G
+CSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCTPxMvh2oIiInsqccUEAV7zb7kc9ij
+nF+TUtq1od+7hSPE7EIG/ozcXjk0d6fCLZVmVpyWdbbJZT5OK1YxOZtbGznHQkmr
+GYfMcNyVI4Cnwy+5PFJHRzG/k5JihqCiLA0TQ5yOVhKDeVYhKfIayyRgYtr34ZcE
+Tieq5WBLbcCIrEfkQMRYQE8WtphcWXnU5dSbajO09QyBuEMlFyDZtVl8mvOAUchy
++3zHpQzBhuxI7RRskNdNTJP3oEyUCbvSDSmK7xXqHR+KstoPr/7scoUIxhZh7irU
+NuZYaJXFR5nxweDeJfzFjDX7EKAIVNuwyMHDiKOkClEeDrnRX1pV5xpjAgMBAAGj
+ggGBMIIBfTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFPNkMn2yPF3lLuBJfLTq
+YhWUeC6rMHIGCCsGAQUFBwEBBGYwZDAyBggrBgEFBQcwAoYmaHR0cHM6Ly9tb2Jp
+bGUtaWQudm4vcGtpL21vYmlsZS1pZC5jcnQwLgYIKwYBBQUHMAGGImh0dHA6Ly9t
+b2JpbGUtaWQudm4vb2NzcC9yZXNwb25kZXIwRQYDVR0gBD4wPDA6BgsrBgEEAYHt
+AwEEATArMCkGCCsGAQUFBwIBFh1odHRwczovL21vYmlsZS1pZC52bi9jcHMuaHRt
+bDA0BgNVHSUELTArBggrBgEFBQcDAgYIKwYBBQUHAwQGCisGAQQBgjcKAwwGCSqG
+SIb3LwEBBTAsBgNVHR8EJTAjMCGgH6AdhhtodHRwOi8vbW9iaWxlLWlkLnZuL2Ny
+bC9nZXQwHQYDVR0OBBYEFO6StLdmB5DjmNjninoUuSL3aAzrMA4GA1UdDwEB/wQE
+AwIE8DANBgkqhkiG9w0BAQsFAAOCAgEALYDRvZ6f4dWlUClnZnngT3CuVExFW8iZ
+zTN4T3G7mXU5CqzgXjW36QFY7TIXBVxjqNYhgB1gIe85AjZhjrnAWuuKRVMrpgde
+P/ZiuQ6ZTiQzUi1EuOPJhp6j8tUPjbzS+oBx9xFTAL2XUez6Xqv6wly/EWs6ca7B
+v3YiKksgC2HbLIIKXKcJMxCbMK26uzhfj8J3jL+ioQfCu+MiaTAu0pJblA/5gyIz
+fYnKD9On0at5m2QTYNoPyoi+DtlK/AQb+hziEnnsq0g2kG6yfiREB4M4EsbvRYMm
+FjoDVSIipnWr3wvwOmBlo9YEMTTtXHPNR5cGHZn6spBRUXir8NdRlz0CFxsUzd+i
+9whZPnUORyprDZEmFVleNvkvs3kk7sdbNmInlLFdY9bsVx0AM80Bq2KSjuC7kWat
+8d5LLhUIc00p+IRHQPAri9Bb1aX1AVBcAyqhUvahz4qiM8/lrWDepYAeqJeFtHzS
+4NfZHJGxQqK0qycj0WzzRCdzmDjKDTCLfMCU0Bp++tbthD42BlPfr1ifgBZ2y54M
+dKxSEJMyKAA5KCzadRLnaTA427ei4tvw599yvcxvYGoyRVvLzi/eqWD3o8ENKKbe
+l+z8l+3C2ZwYWm1hAn3AVzHb4n1dfuUpEQ82syfuqCcLAFYhPMSIBMsrteeYgddM
+XNtg/VC+tDI=
+-----END CERTIFICATE-----"</t>
+  </si>
+  <si>
+    <t>"-----BEGIN CERTIFICATE-----
+MIIGRDCCBCygAwIBAgIEVfAPITANBgkqhkiG9w0BAQsFADCByDELMAkGA1UEBhMC
+Vk4xFDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFA
+MD4GA1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9p
+bnQgU3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBE
+ZXBhcnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMCAX
+DTE3MDQyMTAyNTA1MVoYDzIxMTcwMzI4MDI1MDUxWjCByDELMAkGA1UEBhMCVk4x
+FDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFAMD4G
+A1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9pbnQg
+U3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBEZXBh
+cnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMIICIjAN
+BgkqhkiG9w0BAQEFAAOCAg8AMIICCgKCAgEAjtHJbKRUfVPE3vr7SjROLgQYO1bT
+i+WgIinSsLn9XGj7gjO4cx8ejs9I8IGrx2q5Wzcrcavi5nxRzoKbO8EVkR+F69Ux
+gF54e8Nfe76i3v8BGTk8vngpvQrndN8uE6YiQ/G0s5hLi/gZfffcMTlMQrlwYdRp
+EMhn6nNoF675xpaBk15+epa7SjXbgGvCkA0CkR+SKvhd4pnMORZ2/jpQvLG5DQIz
+QLApAmWHcoexFxTgPzuw2qhinWPO07X/H5pz5dAAKhflI451OG2PZCloZEo1lemm
+spm3azFlaYzkbLPI+GsV61PB/AQEIKq9tXLCuyYbpXYqOlbFP8LYGyfumdOwS2/L
+FKwHGLAdlofCGI0eMp/dsa+aL+My8Rqv0S0PhClcnvDaSCIYBPDgI5wW4u/sr3Wz
+5n5f4Z3k5vJi0GU8l0FroNsFCN8EOc/vM+wgm+Uol74FrEo0LpT8TUWh71HUF29s
+BxtEQ8Zw5YpUMCTcPuBsVRwuLGGae8VKpPc4jEwpGmvoGj8cfS2qoEMNPtRnGM3K
+t+q39zLoDk+6Kmr5oi8XVfZmibXRtNvrixMj6jAEm/3Vag9VdQ4SR+QFwpJOcIOB
+tX9mDnamXnBHWFqGUqOUU9/6y4p8B2o3RDE/WeiWtU66gQZasli6TJb0RpNoY/Xy
+XHGn+J0gd9EDXn0CAwEAAaMyMDAwDwYDVR0TAQH/BAUwAwEB/zAdBgNVHQ4EFgQU
+82QyfbI8XeUu4El8tOpiFZR4LqswDQYJKoZIhvcNAQELBQADggIBAI3hBTzed1Zt
+Dh5DvdidSJoGRBXJQ24Y3VjxPbelLNxnZiYCiSIQhL7KIjmDZOBQJwqlBxWOsao7
+PuRaohdAcDQ2jImeiIAmkRaTcUWZgB++IuS1ta01XMcAEp/taQEjHKjwAr22IILN
+Vk9z0WNVf5Pd9NWMu4lFqwECpKTJnToIqEGVVWcqAAupGT64LQ/Cf+/oEpDtkRaV
+azFj7ob1Rxjl5hmOxMwNHW8wRPcq8glg+26Tp9jqcaw32fhfnUPDHBdoYcU/VhMk
+gBeYXGHTPHp32Kj4l/QxWnxY0IvChyq+Qao1D19K5PbJQH5A5bQbwqgBtMihsdrG
+Sr9VJ7LtNmBc+8dNchqi2uXs3ryk8htDluZ60yWK89eRO1NatB2tiDLh5iwejJRi
+eOoyQ3Iq8m/IjtEJTs7ehWJHtiGj2U/tlpVW2fSszoz0TbKxXQPQ/dGNmDorqrM/
+0WEY6lkNEp7qbXB1U378PFUKFh1lIdlfNrgoEvYt0XeIMbXn+fUkB8munP0bCSiJ
+qX7gK+2FuZqfA038JfuwxDBr8SvkkvZOqyUgMPAPRpQCjmFrZgMrilHUokZIL5+C
+z4qaxEf3s3xORy+CuPMousfrOKpdf6jFjnyD8cr4Ez4bMAekPg4F4JJ0WHpOchSl
+DP5a57cb6mHYvOF8ygSobADyNeQ1jkjg
+-----END CERTIFICATE-----"</t>
   </si>
 </sst>
 </file>
@@ -92,8 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +451,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,17 +474,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
+++ b/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
@@ -37,38 +37,38 @@
 MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBCMRQwEgYDVQQLDAtD
 b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
 DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
-AAOCAQ8AMIIBCgKCAQEAkz8TL4dqCIiJ7KnHFBAFe82+5HPYo5xfk1LataHfu4Uj
-xOxCBv6M3F45NHenwi2VZlaclnW2yWU+TitWMTmbWxs5x0JJqxmHzHDclSOAp8Mv
-uTxSR0cxv5OSYoagoiwNE0OcjlYSg3lWISnyGsskYGLa9+GXBE4nquVgS23AiKxH
-5EDEWEBPFraYXFl51OXUm2oztPUMgbhDJRcg2bVZfJrzgFHIcvt8x6UMwYbsSO0U
-bJDXTUyT96BMlAm70g0piu8V6h0firLaD6/+7HKFCMYWYe4q1DbmWGiVxUeZ8cHg
-3iX8xYw1+xCgCFTbsMjBw4ijpApRHg650V9aVecaYwIDAQABMA0GCSqGSIb3DQEB
-BQUAA4IBAQBj9LixX5puB3DPKQsi5EaalujLGnPVWekvAJw/24F3jOABa+r7y1ou
-1BCcgIeopG2NdGJheM3YGD6XzIPjNSVWSeBhGri+QPsRo4I3KFM/waqLQVzE5tZv
-U9sbGVcq4F5iYEV5AWkgXyOr3GBDExsbeej8WsS1cYBOpNMwKBJv/JAhPny7nkkr
-7j51qsZsT/G33UPxXayG6uiAxAUT6IzlKRJfV9hETOauc2m71ybrd3pzbtGBlWIN
-mvESBrGtg6UWbbGboIpCwUIXOIDMORKWnSdBy9itbs8etx8I57YYaqDHV/bD3baQ
-qG7gpHrUvRnuzAAe2PRJ71VElqCyAYLU
+AAOCAQ8AMIIBCgKCAQEAhii3SsTFy6g/zPQpufFMbpt33NHlshemGxGdYMfwmUrH
+F5WQ85Y7yhBllZfyRo6IuR+f3QVAhmACynd5QZ2pWZr7wGuFAwfuNo/egO9ctpkX
+gnggOgW/n0lojVThMp/itcSRM9SVwyBvffPmG2CVawXFeV3G+cph5I509cyqxOyf
+oKuwQ48da4YMYFIi+zGgeo2ilBrxL6zPK50Npmstg6MfHNvS98nOgH1PeBgo1OU7
+HP8TVvDh+PfZV8AQQsY/9eGNMCBwoxiphPPj4v+dVqjwihP7UBr13+umnca0no0q
+bwYBGRqtiWVcFYcndWTen/cPppflOfO2wsqgebz+GwIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQBDjEhqfacS34Ec/C9eR7IpNljRQz6WRqPoTq03tQf4RJ9mKq+X5ku8
+rd50XKvb82Lf7uiOiRHwNRzn/yTkOk8n5nl28kanNDbZf4ZVYR+bIYiBXTLumWN+
+9hlmnLuO9bxHo0h1mn0WATvd0ReBE2CkGC6v2+k8Fwv44GBNUa8X+ymc/GsSyV+2
+tdsNh671RsgR0RmIyTdaWWqkU4V/XZlQCOxhX6CPWuXXbMXPZ01XRsv+zls8uk3q
+jkexOoUmZWN2+X7XwuWkhfti/fDG+I7fEG77sT0y7MEKULvmPuS+BaEUs21GGs+W
+1s83sHwB3pzwoSww9yCZ/177PmhU7Cyy
 -----END CERTIFICATE REQUEST-----
 </t>
   </si>
   <si>
     <t>"-----BEGIN CERTIFICATE-----
-MIIGZDCCBEygAwIBAgIMPRw66sJFvKK12gGJMA0GCSqGSIb3DQEBCwUAMIHIMQsw
+MIIGZDCCBEygAwIBAgIMXUQx+s7YNyZcrOJQMA0GCSqGSIb3DQEBCwUAMIHIMQsw
 CQYDVQQGEwJWTjEUMBIGA1UECBMLSG8gQ2hpIE1pbmgxFDASBgNVBAcTC0hvIENo
 aSBNaW5oMUAwPgYDVQQKEzdNb2JpbGUtSUQgVGVjaG5vbG9naWVzIGFuZCBTZXJ2
 aWNlcyBKb2ludCBTdG9jayBDb21wYW55MScwJQYDVQQLEx5Nb2JpbGUtSUQgVGVj
 aG5pY2FsIERlcGFydG1lbnQxIjAgBgNVBAMTGU1vYmlsZS1JRCBUcnVzdGVkIE5l
-dHdvcmswHhcNMjIwODA4MDc0OTQ2WhcNMjMwODEzMDc0OTQ2WjCBkTELMAkGA1UE
+dHdvcmswHhcNMjIwODA4MDkyMjU2WhcNMjMwODEzMDkyMjU2WjCBkTELMAkGA1UE
 BhMCVk4xEjAQBgNVBAgMCUjDoCBO4buZaTEaMBgGA1UECgwRTmd1eWVuIFZhbiBU
-ZXN0IDgxFTATBgNVBAsMDENvbmcgVHkgQUJDRDEaMBgGA1UEAwwRTmd1eWVuIFZh
-biBUZXN0IDgxHzAdBgoJkiaJk/IsZAEBDA9NU1Q6MTIzNDU2NzgwMDgwggEiMA0G
-CSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCTPxMvh2oIiInsqccUEAV7zb7kc9ij
-nF+TUtq1od+7hSPE7EIG/ozcXjk0d6fCLZVmVpyWdbbJZT5OK1YxOZtbGznHQkmr
-GYfMcNyVI4Cnwy+5PFJHRzG/k5JihqCiLA0TQ5yOVhKDeVYhKfIayyRgYtr34ZcE
-Tieq5WBLbcCIrEfkQMRYQE8WtphcWXnU5dSbajO09QyBuEMlFyDZtVl8mvOAUchy
-+3zHpQzBhuxI7RRskNdNTJP3oEyUCbvSDSmK7xXqHR+KstoPr/7scoUIxhZh7irU
-NuZYaJXFR5nxweDeJfzFjDX7EKAIVNuwyMHDiKOkClEeDrnRX1pV5xpjAgMBAAGj
+ZXN0IDkxFTATBgNVBAsMDENvbmcgVHkgQUJDRDEaMBgGA1UEAwwRTmd1eWVuIFZh
+biBUZXN0IDkxHzAdBgoJkiaJk/IsZAEBDA9NU1Q6MTIzNDU2NzgwMDkwggEiMA0G
+CSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCGKLdKxMXLqD/M9Cm58Uxum3fc0eWy
+F6YbEZ1gx/CZSscXlZDzljvKEGWVl/JGjoi5H5/dBUCGYALKd3lBnalZmvvAa4UD
+B+42j96A71y2mReCeCA6Bb+fSWiNVOEyn+K1xJEz1JXDIG998+YbYJVrBcV5Xcb5
+ymHkjnT1zKrE7J+gq7BDjx1rhgxgUiL7MaB6jaKUGvEvrM8rnQ2may2Dox8c29L3
+yc6AfU94GCjU5Tsc/xNW8OH499lXwBBCxj/14Y0wIHCjGKmE8+Pi/51WqPCKE/tQ
+GvXf66adxrSejSpvBgEZGq2JZVwVhyd1ZN6f9w+ml+U587bCyqB5vP4bAgMBAAGj
 ggGBMIIBfTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFPNkMn2yPF3lLuBJfLTq
 YhWUeC6rMHIGCCsGAQUFBwEBBGYwZDAyBggrBgEFBQcwAoYmaHR0cHM6Ly9tb2Jp
 bGUtaWQudm4vcGtpL21vYmlsZS1pZC5jcnQwLgYIKwYBBQUHMAGGImh0dHA6Ly9t
@@ -76,19 +76,19 @@
 AwEEATArMCkGCCsGAQUFBwIBFh1odHRwczovL21vYmlsZS1pZC52bi9jcHMuaHRt
 bDA0BgNVHSUELTArBggrBgEFBQcDAgYIKwYBBQUHAwQGCisGAQQBgjcKAwwGCSqG
 SIb3LwEBBTAsBgNVHR8EJTAjMCGgH6AdhhtodHRwOi8vbW9iaWxlLWlkLnZuL2Ny
-bC9nZXQwHQYDVR0OBBYEFO6StLdmB5DjmNjninoUuSL3aAzrMA4GA1UdDwEB/wQE
-AwIE8DANBgkqhkiG9w0BAQsFAAOCAgEALYDRvZ6f4dWlUClnZnngT3CuVExFW8iZ
-zTN4T3G7mXU5CqzgXjW36QFY7TIXBVxjqNYhgB1gIe85AjZhjrnAWuuKRVMrpgde
-P/ZiuQ6ZTiQzUi1EuOPJhp6j8tUPjbzS+oBx9xFTAL2XUez6Xqv6wly/EWs6ca7B
-v3YiKksgC2HbLIIKXKcJMxCbMK26uzhfj8J3jL+ioQfCu+MiaTAu0pJblA/5gyIz
-fYnKD9On0at5m2QTYNoPyoi+DtlK/AQb+hziEnnsq0g2kG6yfiREB4M4EsbvRYMm
-FjoDVSIipnWr3wvwOmBlo9YEMTTtXHPNR5cGHZn6spBRUXir8NdRlz0CFxsUzd+i
-9whZPnUORyprDZEmFVleNvkvs3kk7sdbNmInlLFdY9bsVx0AM80Bq2KSjuC7kWat
-8d5LLhUIc00p+IRHQPAri9Bb1aX1AVBcAyqhUvahz4qiM8/lrWDepYAeqJeFtHzS
-4NfZHJGxQqK0qycj0WzzRCdzmDjKDTCLfMCU0Bp++tbthD42BlPfr1ifgBZ2y54M
-dKxSEJMyKAA5KCzadRLnaTA427ei4tvw599yvcxvYGoyRVvLzi/eqWD3o8ENKKbe
-l+z8l+3C2ZwYWm1hAn3AVzHb4n1dfuUpEQ82syfuqCcLAFYhPMSIBMsrteeYgddM
-XNtg/VC+tDI=
+bC9nZXQwHQYDVR0OBBYEFPDsMM/q5ErwDwyRX3ZL5W4SNZ4UMA4GA1UdDwEB/wQE
+AwIE8DANBgkqhkiG9w0BAQsFAAOCAgEAh6ujo0JZBb3ys59wsN7SC+uyxZuix7mx
+Uwa0yiC0Dbp6KsTIxJ3UZirgsHkwOXiYU3i/LVZCG7X3YVcRxL6Ej9Ho2OKZzd3Q
+TAdTi262Sm2LDdXTsFy/wmmkVr9v4zJgA6/KxamaroJG6Gvxk9iJs+Zwp1N91iBZ
+K3JnhK7vmiy73qo4TbFxMnYe9ZNOCI6HDArd0b2GxUspjIIeUx3X9OU4VgnK8JBe
+IJX9Fv+ZhhW12bns3LTNBXTrq5Oa7vKChxJtdBCpU73P5bKhr5k4/rHvAmM4Vzo1
++jJHA0g0OZOPRdUcLs8Z5F/6YTD1M41AY9Wnb+dW9XeTcJngmCP5r/1z6USl4vpz
+V0td/ggIF7IRKl6q24GXFstccMj3A7egfnv0BWVbdlQJKF35rg/GtiXJ0BksyJXN
+DxTmxX1RmbvK3KZRocjYlPlW88Z1wbi5MF//wbHESrGBVe2IQ9XlCNKtUhV6nSYx
+IanLtwRe/TsR51jcANW8ZkgpuBMj3wOLNj/nFBM7e0RiEK8LNEKoOIL5ca05bt9b
+CCYpTZ0ggJenmaSYMP58WZB+EOs97a1yn3cCiouFbGusEaG44FJVbQ6A9kzVBgfs
+C9oVfwvign9orWBiIZArLAj5mAeCfa6QWRFumq9nnXkXr1mephnSarA3yjSnnOXi
+3c3pDFm7LcM=
 -----END CERTIFICATE-----"</t>
   </si>
   <si>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
+++ b/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
@@ -37,96 +37,74 @@
 MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBCMRQwEgYDVQQLDAtD
 b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
 DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
-AAOCAQ8AMIIBCgKCAQEAkz8TL4dqCIiJ7KnHFBAFe82+5HPYo5xfk1LataHfu4Uj
-xOxCBv6M3F45NHenwi2VZlaclnW2yWU+TitWMTmbWxs5x0JJqxmHzHDclSOAp8Mv
-uTxSR0cxv5OSYoagoiwNE0OcjlYSg3lWISnyGsskYGLa9+GXBE4nquVgS23AiKxH
-5EDEWEBPFraYXFl51OXUm2oztPUMgbhDJRcg2bVZfJrzgFHIcvt8x6UMwYbsSO0U
-bJDXTUyT96BMlAm70g0piu8V6h0firLaD6/+7HKFCMYWYe4q1DbmWGiVxUeZ8cHg
-3iX8xYw1+xCgCFTbsMjBw4ijpApRHg650V9aVecaYwIDAQABMA0GCSqGSIb3DQEB
-BQUAA4IBAQBj9LixX5puB3DPKQsi5EaalujLGnPVWekvAJw/24F3jOABa+r7y1ou
-1BCcgIeopG2NdGJheM3YGD6XzIPjNSVWSeBhGri+QPsRo4I3KFM/waqLQVzE5tZv
-U9sbGVcq4F5iYEV5AWkgXyOr3GBDExsbeej8WsS1cYBOpNMwKBJv/JAhPny7nkkr
-7j51qsZsT/G33UPxXayG6uiAxAUT6IzlKRJfV9hETOauc2m71ybrd3pzbtGBlWIN
-mvESBrGtg6UWbbGboIpCwUIXOIDMORKWnSdBy9itbs8etx8I57YYaqDHV/bD3baQ
-qG7gpHrUvRnuzAAe2PRJ71VElqCyAYLU
+AAOCAQ8AMIIBCgKCAQEAkaQF6Xd7KisWdJH4IsNefTboppbRreKHXt0Kvo/NxJNQ
+LzSAV5Eb72m8HvuFaI+36gcUFhRJR40YyTpjeu/nxG3MEpIxACY1UYaKzkupsLKx
+Q0agEkAFC23CNpbnKJok/o/1uQG7G9Omo+0iFJZqUb0hco7Wu+TCpTKYg37xpKR/
+YoCyisVhH6Ywq4PzEw/LBhhSP0c/DQHFsjKsTdFqBWhieH8/s9GFFRRVN1UURXwD
+kiBrMWIKo5e3f+3HsHOEutBmrYQXTRyHkYNk/DabjovagJ6Ffnl8++LSBRuEInsQ
+Ukyi5gEPCddH6/zYQ2NRuqwrZFKV8XuS95IlqcSDbQIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQBAC724WoooKC1I6McGvI7fK+m3KowMFYAPwtwimBGfWejcfXvFq2nG
+GxRH6pvvnEmw79DFPfSPvnLNeK77LA0ibqdZAD40yrjZK5K/572OPg117EAxFQWD
+Bf+NyfbJJ1DcLqXkIi7fZOTC7CxIxQ60szuAF71p1ZiffWos6ZJ6NJM5q1U/pttR
+cWfOYAIpTl/Ls1LeBOsypcbVcv0fuegt1TkAPk2SEGpdLw6WeHzEepgrlc+Pxyi1
+UWU35k3Merf436G6qebR98LnJty7/R7+NtBOXMWhD3Faqsax8Faodck4HgkpSOrT
+o7n3aFe6I7tQrK/S5GsBpqY+l+NPAC/j
 -----END CERTIFICATE REQUEST-----
 </t>
   </si>
   <si>
     <t>"-----BEGIN CERTIFICATE-----
-MIIGZDCCBEygAwIBAgIMPRw66sJFvKK12gGJMA0GCSqGSIb3DQEBCwUAMIHIMQsw
-CQYDVQQGEwJWTjEUMBIGA1UECBMLSG8gQ2hpIE1pbmgxFDASBgNVBAcTC0hvIENo
-aSBNaW5oMUAwPgYDVQQKEzdNb2JpbGUtSUQgVGVjaG5vbG9naWVzIGFuZCBTZXJ2
-aWNlcyBKb2ludCBTdG9jayBDb21wYW55MScwJQYDVQQLEx5Nb2JpbGUtSUQgVGVj
-aG5pY2FsIERlcGFydG1lbnQxIjAgBgNVBAMTGU1vYmlsZS1JRCBUcnVzdGVkIE5l
-dHdvcmswHhcNMjIwODA4MDc0OTQ2WhcNMjMwODEzMDc0OTQ2WjCBkTELMAkGA1UE
-BhMCVk4xEjAQBgNVBAgMCUjDoCBO4buZaTEaMBgGA1UECgwRTmd1eWVuIFZhbiBU
-ZXN0IDgxFTATBgNVBAsMDENvbmcgVHkgQUJDRDEaMBgGA1UEAwwRTmd1eWVuIFZh
-biBUZXN0IDgxHzAdBgoJkiaJk/IsZAEBDA9NU1Q6MTIzNDU2NzgwMDgwggEiMA0G
-CSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCTPxMvh2oIiInsqccUEAV7zb7kc9ij
-nF+TUtq1od+7hSPE7EIG/ozcXjk0d6fCLZVmVpyWdbbJZT5OK1YxOZtbGznHQkmr
-GYfMcNyVI4Cnwy+5PFJHRzG/k5JihqCiLA0TQ5yOVhKDeVYhKfIayyRgYtr34ZcE
-Tieq5WBLbcCIrEfkQMRYQE8WtphcWXnU5dSbajO09QyBuEMlFyDZtVl8mvOAUchy
-+3zHpQzBhuxI7RRskNdNTJP3oEyUCbvSDSmK7xXqHR+KstoPr/7scoUIxhZh7irU
-NuZYaJXFR5nxweDeJfzFjDX7EKAIVNuwyMHDiKOkClEeDrnRX1pV5xpjAgMBAAGj
-ggGBMIIBfTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFPNkMn2yPF3lLuBJfLTq
-YhWUeC6rMHIGCCsGAQUFBwEBBGYwZDAyBggrBgEFBQcwAoYmaHR0cHM6Ly9tb2Jp
-bGUtaWQudm4vcGtpL21vYmlsZS1pZC5jcnQwLgYIKwYBBQUHMAGGImh0dHA6Ly9t
-b2JpbGUtaWQudm4vb2NzcC9yZXNwb25kZXIwRQYDVR0gBD4wPDA6BgsrBgEEAYHt
-AwEEATArMCkGCCsGAQUFBwIBFh1odHRwczovL21vYmlsZS1pZC52bi9jcHMuaHRt
-bDA0BgNVHSUELTArBggrBgEFBQcDAgYIKwYBBQUHAwQGCisGAQQBgjcKAwwGCSqG
-SIb3LwEBBTAsBgNVHR8EJTAjMCGgH6AdhhtodHRwOi8vbW9iaWxlLWlkLnZuL2Ny
-bC9nZXQwHQYDVR0OBBYEFO6StLdmB5DjmNjninoUuSL3aAzrMA4GA1UdDwEB/wQE
-AwIE8DANBgkqhkiG9w0BAQsFAAOCAgEALYDRvZ6f4dWlUClnZnngT3CuVExFW8iZ
-zTN4T3G7mXU5CqzgXjW36QFY7TIXBVxjqNYhgB1gIe85AjZhjrnAWuuKRVMrpgde
-P/ZiuQ6ZTiQzUi1EuOPJhp6j8tUPjbzS+oBx9xFTAL2XUez6Xqv6wly/EWs6ca7B
-v3YiKksgC2HbLIIKXKcJMxCbMK26uzhfj8J3jL+ioQfCu+MiaTAu0pJblA/5gyIz
-fYnKD9On0at5m2QTYNoPyoi+DtlK/AQb+hziEnnsq0g2kG6yfiREB4M4EsbvRYMm
-FjoDVSIipnWr3wvwOmBlo9YEMTTtXHPNR5cGHZn6spBRUXir8NdRlz0CFxsUzd+i
-9whZPnUORyprDZEmFVleNvkvs3kk7sdbNmInlLFdY9bsVx0AM80Bq2KSjuC7kWat
-8d5LLhUIc00p+IRHQPAri9Bb1aX1AVBcAyqhUvahz4qiM8/lrWDepYAeqJeFtHzS
-4NfZHJGxQqK0qycj0WzzRCdzmDjKDTCLfMCU0Bp++tbthD42BlPfr1ifgBZ2y54M
-dKxSEJMyKAA5KCzadRLnaTA427ei4tvw599yvcxvYGoyRVvLzi/eqWD3o8ENKKbe
-l+z8l+3C2ZwYWm1hAn3AVzHb4n1dfuUpEQ82syfuqCcLAFYhPMSIBMsrteeYgddM
-XNtg/VC+tDI=
+MIIEqTCCA5GgAwIBAgIQVAEBEgNJj1/EwR62D3pF4DANBgkqhkiG9w0BAQsFADBA
+MQswCQYDVQQGEwJWTjEiMCAGA1UECgwZSS1DQSBPTkxJTkUgTUVESUEgVklFVE5B
+TTENMAsGA1UEAwwESS1DQTAeFw0yMjA4MDkwMjE5MjVaFw0yMzA4MTAwMjE5MjVa
+MIGPMQswCQYDVQQGEwJWTjEXMBUGA1UECAwOSOG7kyBDaMOtIE1pbmgxFjAUBgNV
+BAoMDU5ndXllbiBWYW4gQW4xFTATBgNVBAsMDENvbmcgVHkgQUJDRDEWMBQGA1UE
+AwwNTmd1eWVuIFZhbiBBbjEgMB4GCgmSJomT8ixkAQEMEE1TVDoyMDIyMDgwOTAw
+MDEwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCRpAXpd3sqKxZ0kfgi
+w159NuimltGt4ode3Qq+j83Ek1AvNIBXkRvvabwe+4Voj7fqBxQWFElHjRjJOmN6
+7+fEbcwSkjEAJjVRhorOS6mwsrFDRqASQAULbcI2lucomiT+j/W5Absb06aj7SIU
+lmpRvSFyjta75MKlMpiDfvGkpH9igLKKxWEfpjCrg/MTD8sGGFI/Rz8NAcWyMqxN
+0WoFaGJ4fz+z0YUVFFU3VRRFfAOSIGsxYgqjl7d/7cewc4S60GathBdNHIeRg2T8
+NpuOi9qAnoV+eXz74tIFG4QiexBSTKLmAQ8J10fr/NhDY1G6rCtkUpXxe5L3kiWp
+xINtAgMBAAGjggFNMIIBSTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFIKuRopm
+lye2dIqcMBpXhLMyqPziMDkGCCsGAQUFBwEBBC0wKzApBggrBgEFBQcwAYYdaHR0
+cDovL29jc3AuaS1jYS52bi9yZXNwb25kZXIwTwYDVR0gBEgwRjBEBgsrBgEEAYHt
+AwEEATA1MDMGCCsGAQUFBwIBFidodHRwOi8vZGljaHZ1ZGllbnR1LmZwdC5jb20u
+dm4vY3BzLmh0bWwwNAYDVR0lBC0wKwYIKwYBBQUHAwIGCCsGAQUFBwMEBgorBgEE
+AYI3CgMMBgkqhkiG9y8BAQUwJwYDVR0fBCAwHjAcoBqgGIYWaHR0cDovL2ktY2Eu
+dm4vcHViL2NybDAdBgNVHQ4EFgQUulILDyMdeJygkxgGwbzl6UOb8YIwDgYDVR0P
+AQH/BAQDAgTwMA0GCSqGSIb3DQEBCwUAA4IBAQBGUW09tuo2te+F1iNA7UfCt9iW
+va/s7oEqJ9btODtBJGy2oIv+EP1OWjDyS0IycWCy9Soyj88Crh6yc9hCEBZnUw6+
+rkzocFUvuyHVYOaiOn5KRSOb2ygd5JlC9LSTbqSJtjxKc65OELogLTkj4sXoLCDR
+TYn/Mq7nGtMU5rQN20S9gTUAhicQKMOT7LzhwRVqjaAk8gqzRD+Q+NxvxeFM++TH
+0DURMzHTZYCHN0TyZFrY9+YHUDgkOOPFLfSucCQsM71956pluTKJGkI6vIbJPIfR
+X7ZYMt8cV7tvvJqVau+mnFq0ioDXrUKp/cFYdcUe7KPBLMYh3tw6zti9BaCK
 -----END CERTIFICATE-----"</t>
   </si>
   <si>
     <t>"-----BEGIN CERTIFICATE-----
-MIIGRDCCBCygAwIBAgIEVfAPITANBgkqhkiG9w0BAQsFADCByDELMAkGA1UEBhMC
-Vk4xFDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFA
-MD4GA1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9p
-bnQgU3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBE
-ZXBhcnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMCAX
-DTE3MDQyMTAyNTA1MVoYDzIxMTcwMzI4MDI1MDUxWjCByDELMAkGA1UEBhMCVk4x
-FDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFAMD4G
-A1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9pbnQg
-U3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBEZXBh
-cnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMIICIjAN
-BgkqhkiG9w0BAQEFAAOCAg8AMIICCgKCAgEAjtHJbKRUfVPE3vr7SjROLgQYO1bT
-i+WgIinSsLn9XGj7gjO4cx8ejs9I8IGrx2q5Wzcrcavi5nxRzoKbO8EVkR+F69Ux
-gF54e8Nfe76i3v8BGTk8vngpvQrndN8uE6YiQ/G0s5hLi/gZfffcMTlMQrlwYdRp
-EMhn6nNoF675xpaBk15+epa7SjXbgGvCkA0CkR+SKvhd4pnMORZ2/jpQvLG5DQIz
-QLApAmWHcoexFxTgPzuw2qhinWPO07X/H5pz5dAAKhflI451OG2PZCloZEo1lemm
-spm3azFlaYzkbLPI+GsV61PB/AQEIKq9tXLCuyYbpXYqOlbFP8LYGyfumdOwS2/L
-FKwHGLAdlofCGI0eMp/dsa+aL+My8Rqv0S0PhClcnvDaSCIYBPDgI5wW4u/sr3Wz
-5n5f4Z3k5vJi0GU8l0FroNsFCN8EOc/vM+wgm+Uol74FrEo0LpT8TUWh71HUF29s
-BxtEQ8Zw5YpUMCTcPuBsVRwuLGGae8VKpPc4jEwpGmvoGj8cfS2qoEMNPtRnGM3K
-t+q39zLoDk+6Kmr5oi8XVfZmibXRtNvrixMj6jAEm/3Vag9VdQ4SR+QFwpJOcIOB
-tX9mDnamXnBHWFqGUqOUU9/6y4p8B2o3RDE/WeiWtU66gQZasli6TJb0RpNoY/Xy
-XHGn+J0gd9EDXn0CAwEAAaMyMDAwDwYDVR0TAQH/BAUwAwEB/zAdBgNVHQ4EFgQU
-82QyfbI8XeUu4El8tOpiFZR4LqswDQYJKoZIhvcNAQELBQADggIBAI3hBTzed1Zt
-Dh5DvdidSJoGRBXJQ24Y3VjxPbelLNxnZiYCiSIQhL7KIjmDZOBQJwqlBxWOsao7
-PuRaohdAcDQ2jImeiIAmkRaTcUWZgB++IuS1ta01XMcAEp/taQEjHKjwAr22IILN
-Vk9z0WNVf5Pd9NWMu4lFqwECpKTJnToIqEGVVWcqAAupGT64LQ/Cf+/oEpDtkRaV
-azFj7ob1Rxjl5hmOxMwNHW8wRPcq8glg+26Tp9jqcaw32fhfnUPDHBdoYcU/VhMk
-gBeYXGHTPHp32Kj4l/QxWnxY0IvChyq+Qao1D19K5PbJQH5A5bQbwqgBtMihsdrG
-Sr9VJ7LtNmBc+8dNchqi2uXs3ryk8htDluZ60yWK89eRO1NatB2tiDLh5iwejJRi
-eOoyQ3Iq8m/IjtEJTs7ehWJHtiGj2U/tlpVW2fSszoz0TbKxXQPQ/dGNmDorqrM/
-0WEY6lkNEp7qbXB1U378PFUKFh1lIdlfNrgoEvYt0XeIMbXn+fUkB8munP0bCSiJ
-qX7gK+2FuZqfA038JfuwxDBr8SvkkvZOqyUgMPAPRpQCjmFrZgMrilHUokZIL5+C
-z4qaxEf3s3xORy+CuPMousfrOKpdf6jFjnyD8cr4Ez4bMAekPg4F4JJ0WHpOchSl
-DP5a57cb6mHYvOF8ygSobADyNeQ1jkjg
+MIIEFzCCAv+gAwIBAgIQUg2ZAIOhDZYGdNIICqql5jANBgkqhkiG9w0BAQsFADCB
+ozELMAkGA1UEBhMCVk4xMzAxBgNVBAoMKk1pbmlzdHJ5IG9mIEluZm9ybWF0aW9u
+IGFuZCBDb21tdW5pY2F0aW9uczE8MDoGA1UECwwzTmF0aW9uYWwgQ2VudHJlIG9m
+IERpZ2l0YWwgU2lnbmF0dXJlIEF1dGhlbnRpY2F0aW9uMSEwHwYDVQQDDBhWaWV0
+bmFtIE5hdGlvbmFsIFJvb3QgQ0EwHhcNMjExMTA5MDIwMjU2WhcNMjYxMTA4MDIw
+MjU2WjBAMQswCQYDVQQGEwJWTjEiMCAGA1UECgwZSS1DQSBPTkxJTkUgTUVESUEg
+VklFVE5BTTENMAsGA1UEAwwESS1DQTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCC
+AQoCggEBAKX124bkZ1BkanyJXU1FiwJmCewZorjaHxDt1xey+Nw30xRRgcLL14bS
+pRNvdIlhGGQVZntLcr5euPdMxm9tyRqPruLBiDepSiAqI8Y2koPiufLLfEYy9BHe
+xLV6L3SarMcVxYs/sxEHzpa5oKoNcOU1zU93b0WSwipXhXZoSJ1wuqcDusHiejfb
+rTCRMKeO/urd8S+sEx0QOIAvwbLbyNcjiGTWIC/13rNp0Yj6z0ioxLsK7WHon2Q9
+IcyzTAMhJq9bzO2QxxpZhs+5Gb8z/figloco346UCH3HczAAJ6dBNNiF5parP4Ef
+fO2hyNoRKBGF7poT6Lo0PEuRgAOrDn8CAwEAAaOBqDCBpTAPBgNVHRMBAf8EBTAD
+AQH/MB8GA1UdIwQYMBaAFDpCowulPxVK/Rq2Ya+6acwTkQAqMEIGA1UdHwQ7MDkw
+N6A1oDOGMWh0dHBzOi8vbW9iaWxlLWlkLnZuL2Rvd25sb2FkL3RlbXAvbWljcm9v
+dDI1Ni5jcmwwHQYDVR0OBBYEFIKuRopmlye2dIqcMBpXhLMyqPziMA4GA1UdDwEB
+/wQEAwIBhjANBgkqhkiG9w0BAQsFAAOCAQEAQkS3E1sDc3SAl0u39pP+XvH+ZF2p
+HYYaf+q5F7rs2ejteTqBns0tg0hfxzU4mZM79pCYwQDzx2Sfuzk8lglyKcIvi/og
+ZElgNe161cd9eANwtQuZlXzI13kZRUafwh0b6StXXX8EkUzbjt4DAuQeL45Uxr5P
+JVWqw0uIdX5uBYRRBJGFAqxrHx/O0pTwZ6WTRYqvkf+Eq65oB8A9lxd8c1lPPG+u
+KSPAvNOzJhNfwO7VcjndmorES2Zfq+oKDFEt8RxzoLhJ3aAmwWfYQH9a1XSrdPoI
+DPL39Fh/rRAIRN6dRslAmEdGdv9/DsMBVsm8gyi+KaJrMYf/mwMkVjORFw==
 -----END CERTIFICATE-----"</t>
   </si>
 </sst>
@@ -450,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
+++ b/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
@@ -37,75 +37,26 @@
 MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBCMRQwEgYDVQQLDAtD
 b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
 DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
-AAOCAQ8AMIIBCgKCAQEAkaQF6Xd7KisWdJH4IsNefTboppbRreKHXt0Kvo/NxJNQ
-LzSAV5Eb72m8HvuFaI+36gcUFhRJR40YyTpjeu/nxG3MEpIxACY1UYaKzkupsLKx
-Q0agEkAFC23CNpbnKJok/o/1uQG7G9Omo+0iFJZqUb0hco7Wu+TCpTKYg37xpKR/
-YoCyisVhH6Ywq4PzEw/LBhhSP0c/DQHFsjKsTdFqBWhieH8/s9GFFRRVN1UURXwD
-kiBrMWIKo5e3f+3HsHOEutBmrYQXTRyHkYNk/DabjovagJ6Ffnl8++LSBRuEInsQ
-Ukyi5gEPCddH6/zYQ2NRuqwrZFKV8XuS95IlqcSDbQIDAQABMA0GCSqGSIb3DQEB
-BQUAA4IBAQBAC724WoooKC1I6McGvI7fK+m3KowMFYAPwtwimBGfWejcfXvFq2nG
-GxRH6pvvnEmw79DFPfSPvnLNeK77LA0ibqdZAD40yrjZK5K/572OPg117EAxFQWD
-Bf+NyfbJJ1DcLqXkIi7fZOTC7CxIxQ60szuAF71p1ZiffWos6ZJ6NJM5q1U/pttR
-cWfOYAIpTl/Ls1LeBOsypcbVcv0fuegt1TkAPk2SEGpdLw6WeHzEepgrlc+Pxyi1
-UWU35k3Merf436G6qebR98LnJty7/R7+NtBOXMWhD3Faqsax8Faodck4HgkpSOrT
-o7n3aFe6I7tQrK/S5GsBpqY+l+NPAC/j
+AAOCAQ8AMIIBCgKCAQEAoVlULf4bVjUPVtl6WxvLWdE2lHGi6t3iTPqIgwMrPM0y
+ag/mz3AQN4njCtyRfHbwb6cIYrmxeNCC9iDqaOcFC1L97s7kH4czXTa5ro4qO34S
+7cKtucQBH+TqRW43gKZknwLCFdnDf07+/ltX9Nsg3u629ZRRKlqn5a8DMUBAqK9s
+ZJYlRek8MAw+XVSJ97JJACXhvmPKHneeb5Ecqtg7Gw7cX4R3lmZc5Gas+g0hShsd
+9YBnNZi7V9GKFA95Om1g3VQUhJLTvd6PWPz3Gltr1mHRU45O2o/MkxnlH0y63zp0
+Gnbb98kr+tsSi1A4gSqWAGX4c6ZUiqk1Boz5bOKSMwIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQA3DPP0Dl2j0kl0yvTriU1Urc0mwsKKWH69nT/C5GyMpba3okHtfqnq
+A6rvuDwWep4XxGcHIx0px8YCxRpAjKzkkIguunniR7/BF9XOzyTBu+vFxsdGCt3C
+1/8gvEA7j73iFSckeB13jEUgFAyMTCvYLlTtS6FsV6BCdl9ecv4W+hEwlcADkqUu
+Ar9CfR+0rdAsrfgeMUYAXeN6tY55azKvfzbSBkcCvh8b7Q6/49Fhr/mFLMiY/x1V
+fstxIX3QDv4qOZPa5wQCW2o/Eyednt2LzAhut5EsvEqko4BlWzFuPThaG052KANJ
+ZDdLD1VmRKdjcCJFYfZGlThwxRv7OKmO
 -----END CERTIFICATE REQUEST-----
 </t>
   </si>
   <si>
-    <t>"-----BEGIN CERTIFICATE-----
-MIIEqTCCA5GgAwIBAgIQVAEBEgNJj1/EwR62D3pF4DANBgkqhkiG9w0BAQsFADBA
-MQswCQYDVQQGEwJWTjEiMCAGA1UECgwZSS1DQSBPTkxJTkUgTUVESUEgVklFVE5B
-TTENMAsGA1UEAwwESS1DQTAeFw0yMjA4MDkwMjE5MjVaFw0yMzA4MTAwMjE5MjVa
-MIGPMQswCQYDVQQGEwJWTjEXMBUGA1UECAwOSOG7kyBDaMOtIE1pbmgxFjAUBgNV
-BAoMDU5ndXllbiBWYW4gQW4xFTATBgNVBAsMDENvbmcgVHkgQUJDRDEWMBQGA1UE
-AwwNTmd1eWVuIFZhbiBBbjEgMB4GCgmSJomT8ixkAQEMEE1TVDoyMDIyMDgwOTAw
-MDEwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCRpAXpd3sqKxZ0kfgi
-w159NuimltGt4ode3Qq+j83Ek1AvNIBXkRvvabwe+4Voj7fqBxQWFElHjRjJOmN6
-7+fEbcwSkjEAJjVRhorOS6mwsrFDRqASQAULbcI2lucomiT+j/W5Absb06aj7SIU
-lmpRvSFyjta75MKlMpiDfvGkpH9igLKKxWEfpjCrg/MTD8sGGFI/Rz8NAcWyMqxN
-0WoFaGJ4fz+z0YUVFFU3VRRFfAOSIGsxYgqjl7d/7cewc4S60GathBdNHIeRg2T8
-NpuOi9qAnoV+eXz74tIFG4QiexBSTKLmAQ8J10fr/NhDY1G6rCtkUpXxe5L3kiWp
-xINtAgMBAAGjggFNMIIBSTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFIKuRopm
-lye2dIqcMBpXhLMyqPziMDkGCCsGAQUFBwEBBC0wKzApBggrBgEFBQcwAYYdaHR0
-cDovL29jc3AuaS1jYS52bi9yZXNwb25kZXIwTwYDVR0gBEgwRjBEBgsrBgEEAYHt
-AwEEATA1MDMGCCsGAQUFBwIBFidodHRwOi8vZGljaHZ1ZGllbnR1LmZwdC5jb20u
-dm4vY3BzLmh0bWwwNAYDVR0lBC0wKwYIKwYBBQUHAwIGCCsGAQUFBwMEBgorBgEE
-AYI3CgMMBgkqhkiG9y8BAQUwJwYDVR0fBCAwHjAcoBqgGIYWaHR0cDovL2ktY2Eu
-dm4vcHViL2NybDAdBgNVHQ4EFgQUulILDyMdeJygkxgGwbzl6UOb8YIwDgYDVR0P
-AQH/BAQDAgTwMA0GCSqGSIb3DQEBCwUAA4IBAQBGUW09tuo2te+F1iNA7UfCt9iW
-va/s7oEqJ9btODtBJGy2oIv+EP1OWjDyS0IycWCy9Soyj88Crh6yc9hCEBZnUw6+
-rkzocFUvuyHVYOaiOn5KRSOb2ygd5JlC9LSTbqSJtjxKc65OELogLTkj4sXoLCDR
-TYn/Mq7nGtMU5rQN20S9gTUAhicQKMOT7LzhwRVqjaAk8gqzRD+Q+NxvxeFM++TH
-0DURMzHTZYCHN0TyZFrY9+YHUDgkOOPFLfSucCQsM71956pluTKJGkI6vIbJPIfR
-X7ZYMt8cV7tvvJqVau+mnFq0ioDXrUKp/cFYdcUe7KPBLMYh3tw6zti9BaCK
------END CERTIFICATE-----"</t>
-  </si>
-  <si>
-    <t>"-----BEGIN CERTIFICATE-----
-MIIEFzCCAv+gAwIBAgIQUg2ZAIOhDZYGdNIICqql5jANBgkqhkiG9w0BAQsFADCB
-ozELMAkGA1UEBhMCVk4xMzAxBgNVBAoMKk1pbmlzdHJ5IG9mIEluZm9ybWF0aW9u
-IGFuZCBDb21tdW5pY2F0aW9uczE8MDoGA1UECwwzTmF0aW9uYWwgQ2VudHJlIG9m
-IERpZ2l0YWwgU2lnbmF0dXJlIEF1dGhlbnRpY2F0aW9uMSEwHwYDVQQDDBhWaWV0
-bmFtIE5hdGlvbmFsIFJvb3QgQ0EwHhcNMjExMTA5MDIwMjU2WhcNMjYxMTA4MDIw
-MjU2WjBAMQswCQYDVQQGEwJWTjEiMCAGA1UECgwZSS1DQSBPTkxJTkUgTUVESUEg
-VklFVE5BTTENMAsGA1UEAwwESS1DQTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCC
-AQoCggEBAKX124bkZ1BkanyJXU1FiwJmCewZorjaHxDt1xey+Nw30xRRgcLL14bS
-pRNvdIlhGGQVZntLcr5euPdMxm9tyRqPruLBiDepSiAqI8Y2koPiufLLfEYy9BHe
-xLV6L3SarMcVxYs/sxEHzpa5oKoNcOU1zU93b0WSwipXhXZoSJ1wuqcDusHiejfb
-rTCRMKeO/urd8S+sEx0QOIAvwbLbyNcjiGTWIC/13rNp0Yj6z0ioxLsK7WHon2Q9
-IcyzTAMhJq9bzO2QxxpZhs+5Gb8z/figloco346UCH3HczAAJ6dBNNiF5parP4Ef
-fO2hyNoRKBGF7poT6Lo0PEuRgAOrDn8CAwEAAaOBqDCBpTAPBgNVHRMBAf8EBTAD
-AQH/MB8GA1UdIwQYMBaAFDpCowulPxVK/Rq2Ya+6acwTkQAqMEIGA1UdHwQ7MDkw
-N6A1oDOGMWh0dHBzOi8vbW9iaWxlLWlkLnZuL2Rvd25sb2FkL3RlbXAvbWljcm9v
-dDI1Ni5jcmwwHQYDVR0OBBYEFIKuRopmlye2dIqcMBpXhLMyqPziMA4GA1UdDwEB
-/wQEAwIBhjANBgkqhkiG9w0BAQsFAAOCAQEAQkS3E1sDc3SAl0u39pP+XvH+ZF2p
-HYYaf+q5F7rs2ejteTqBns0tg0hfxzU4mZM79pCYwQDzx2Sfuzk8lglyKcIvi/og
-ZElgNe161cd9eANwtQuZlXzI13kZRUafwh0b6StXXX8EkUzbjt4DAuQeL45Uxr5P
-JVWqw0uIdX5uBYRRBJGFAqxrHx/O0pTwZ6WTRYqvkf+Eq65oB8A9lxd8c1lPPG+u
-KSPAvNOzJhNfwO7VcjndmorES2Zfq+oKDFEt8RxzoLhJ3aAmwWfYQH9a1XSrdPoI
-DPL39Fh/rRAIRN6dRslAmEdGdv9/DsMBVsm8gyi+KaJrMYf/mwMkVjORFw==
------END CERTIFICATE-----"</t>
+    <t>MIIEFzCCAv+gAwIBAgIQUg2ZAIOhDZYGdNIICqql5jANBgkqhkiG9w0BAQsFADCBozELMAkGA1UEBhMCVk4xMzAxBgNVBAoMKk1pbmlzdHJ5IG9mIEluZm9ybWF0aW9uIGFuZCBDb21tdW5pY2F0aW9uczE8MDoGA1UECwwzTmF0aW9uYWwgQ2VudHJlIG9mIERpZ2l0YWwgU2lnbmF0dXJlIEF1dGhlbnRpY2F0aW9uMSEwHwYDVQQDDBhWaWV0bmFtIE5hdGlvbmFsIFJvb3QgQ0EwHhcNMjExMTA5MDIwMjU2WhcNMjYxMTA4MDIwMjU2WjBAMQswCQYDVQQGEwJWTjEiMCAGA1UECgwZSS1DQSBPTkxJTkUgTUVESUEgVklFVE5BTTENMAsGA1UEAwwESS1DQTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoCggEBAKX124bkZ1BkanyJXU1FiwJmCewZorjaHxDt1xey+Nw30xRRgcLL14bSpRNvdIlhGGQVZntLcr5euPdMxm9tyRqPruLBiDepSiAqI8Y2koPiufLLfEYy9BHexLV6L3SarMcVxYs/sxEHzpa5oKoNcOU1zU93b0WSwipXhXZoSJ1wuqcDusHiejfbrTCRMKeO/urd8S+sEx0QOIAvwbLbyNcjiGTWIC/13rNp0Yj6z0ioxLsK7WHon2Q9IcyzTAMhJq9bzO2QxxpZhs+5Gb8z/figloco346UCH3HczAAJ6dBNNiF5parP4EffO2hyNoRKBGF7poT6Lo0PEuRgAOrDn8CAwEAAaOBqDCBpTAPBgNVHRMBAf8EBTADAQH/MB8GA1UdIwQYMBaAFDpCowulPxVK/Rq2Ya+6acwTkQAqMEIGA1UdHwQ7MDkwN6A1oDOGMWh0dHBzOi8vbW9iaWxlLWlkLnZuL2Rvd25sb2FkL3RlbXAvbWljcm9vdDI1Ni5jcmwwHQYDVR0OBBYEFIKuRopmlye2dIqcMBpXhLMyqPziMA4GA1UdDwEB/wQEAwIBhjANBgkqhkiG9w0BAQsFAAOCAQEAQkS3E1sDc3SAl0u39pP+XvH+ZF2pHYYaf+q5F7rs2ejteTqBns0tg0hfxzU4mZM79pCYwQDzx2Sfuzk8lglyKcIvi/ogZElgNe161cd9eANwtQuZlXzI13kZRUafwh0b6StXXX8EkUzbjt4DAuQeL45Uxr5PJVWqw0uIdX5uBYRRBJGFAqxrHx/O0pTwZ6WTRYqvkf+Eq65oB8A9lxd8c1lPPG+uKSPAvNOzJhNfwO7VcjndmorES2Zfq+oKDFEt8RxzoLhJ3aAmwWfYQH9a1XSrdPoIDPL39Fh/rRAIRN6dRslAmEdGdv9/DsMBVsm8gyi+KaJrMYf/mwMkVjORFw==MIIENTCCAx2gAwIBAgIQYwQDvZu4oRy9ebDWcubo0DANBgkqhkiG9w0BAQsFADCBozELMAkGA1UEBhMCVk4xMzAxBgNVBAoMKk1pbmlzdHJ5IG9mIEluZm9ybWF0aW9uIGFuZCBDb21tdW5pY2F0aW9uczE8MDoGA1UECwwzTmF0aW9uYWwgQ2VudHJlIG9mIERpZ2l0YWwgU2lnbmF0dXJlIEF1dGhlbnRpY2F0aW9uMSEwHwYDVQQDDBhWaWV0bmFtIE5hdGlvbmFsIFJvb3QgQ0EwHhcNMjEwNTExMTAzODE2WhcNNDEwNTA2MTAzODE2WjCBozELMAkGA1UEBhMCVk4xMzAxBgNVBAoMKk1pbmlzdHJ5IG9mIEluZm9ybWF0aW9uIGFuZCBDb21tdW5pY2F0aW9uczE8MDoGA1UECwwzTmF0aW9uYWwgQ2VudHJlIG9mIERpZ2l0YWwgU2lnbmF0dXJlIEF1dGhlbnRpY2F0aW9uMSEwHwYDVQQDDBhWaWV0bmFtIE5hdGlvbmFsIFJvb3QgQ0EwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCb6eUiU9eMzQwm412Gk64UXQMC2jAbDNkKHQWTuQOA7Bs5aTcFvTdKyydcL040BTlODP0kljQDLG54A0oeWiWU2Db1sUeAw7zri7Enqfct9wduowIYa8832QF7ZuGm7B+9H957t5KYlO4OL/4sVQCf0QxpPjFxlvNVoIKJPCIolJ8F2cSW1KVRBn2LzkpiG8UkyB0SWKDZM94tdSYpWVAm4+/di15YXTDQbRtLz2L40YrpcWKh5PqNbeDBz8HSSGGIDdJEvtQtlvXMjUqcRPK9izAXjjuOhSxdYSFtvORxcI/kBKqfZivXtuOl1Oj62PXFXg3A/gcclULGhxzHxBojAgMBAAGjYzBhMA8GA1UdEwEB/wQFMAMBAf8wHwYDVR0jBBgwFoAUOkKjC6U/FUr9GrZhr7ppzBORACowHQYDVR0OBBYEFDpCowulPxVK/Rq2Ya+6acwTkQAqMA4GA1UdDwEB/wQEAwIBhjANBgkqhkiG9w0BAQsFAAOCAQEAB+3YVRZWqOjyjSaTP7c6Oplo8jfwf16YV/2PTaDrpJHg/vvBKlQCjv8as2uLffhrecfL92BNzY7c9CRgFFo48JRyoTxYSxgildaaFmjKinv1AX6Xvz6j0dpE0aFynCaxEhsATSYOQMjUG73xdv2gmXG5jk9bu+RjPluVxD5YUkwE76IDqMZXEL7EiMEGSstTrsXKPaN4z6YqiTs59XHYZTJv6btmh5IiUNLG3GHZiNWfVlxeEwhXkFoHrV7nMYuQCh3wFK4/OegIgdREWTQsvKpIC15DzASfyp1SJfU9k4R0DY175IIYfTQ6y6o7bp7j7RYQJwgbmaZ3O4Ex4l6Prw==</t>
+  </si>
+  <si>
+    <t>MIIEsjCCA5qgAwIBAgIQVAEBEks9a87DsocTaO00pzANBgkqhkiG9w0BAQsFADBAMQswCQYDVQQGEwJWTjEiMCAGA1UECgwZSS1DQSBPTkxJTkUgTUVESUEgVklFVE5BTTENMAsGA1UEAwwESS1DQTAeFw0yMjA4MDkwNDQ2MDdaFw0yMzA4MTAwNDQ2MDdaMIGYMQswCQYDVQQGEwJWTjEXMBUGA1UECAwOSOG7kyBDaMOtIE1pbmgxGzAZBgNVBAoMEk5ndXllbiBWYW4gVGVzdCAxMDEVMBMGA1UECwwMQ29uZyBUeSBBQkNEMRswGQYDVQQDDBJOZ3V5ZW4gVmFuIFRlc3QgMTAxHzAdBgoJkiaJk/IsZAEBDA9NU1Q6MTIzNDU2NzgwMTAwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQChWVQt/htWNQ9W2XpbG8tZ0TaUcaLq3eJM+oiDAys8zTJqD+bPcBA3ieMK3JF8dvBvpwhiubF40IL2IOpo5wULUv3uzuQfhzNdNrmujio7fhLtwq25xAEf5OpFbjeApmSfAsIV2cN/Tv7+W1f02yDe7rb1lFEqWqflrwMxQECor2xkliVF6TwwDD5dVIn3skkAJeG+Y8oed55vkRyq2DsbDtxfhHeWZlzkZqz6DSFKGx31gGc1mLtX0YoUD3k6bWDdVBSEktO93o9Y/PcaW2vWYdFTjk7aj8yTGeUfTLrfOnQadtv3ySv62xKLUDiBKpYAZfhzplSKqTUGjPls4pIzAgMBAAGjggFNMIIBSTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFIKuRopmlye2dIqcMBpXhLMyqPziMDkGCCsGAQUFBwEBBC0wKzApBggrBgEFBQcwAYYdaHR0cDovL29jc3AuaS1jYS52bi9yZXNwb25kZXIwTwYDVR0gBEgwRjBEBgsrBgEEAYHtAwEEATA1MDMGCCsGAQUFBwIBFidodHRwOi8vZGljaHZ1ZGllbnR1LmZwdC5jb20udm4vY3BzLmh0bWwwNAYDVR0lBC0wKwYIKwYBBQUHAwIGCCsGAQUFBwMEBgorBgEEAYI3CgMMBgkqhkiG9y8BAQUwJwYDVR0fBCAwHjAcoBqgGIYWaHR0cDovL2ktY2Eudm4vcHViL2NybDAdBgNVHQ4EFgQUTjIjQWAgjq35sFm2Ao24BX74/mowDgYDVR0PAQH/BAQDAgTwMA0GCSqGSIb3DQEBCwUAA4IBAQBEisExAuBDhLuh/cTn2ksRns2wADGyJDADOn9WVmFWIjU0DLCvjKWUVMOOuSKnDHsfLbL2VKyYq8X57DmL1D8Wx9Yyvl6CJWXSZHsusFWZi2x+Uz41bRaDA38eXvKqnRs6x6idGbZYIvZ81wTV7Mo8Zfr+OE+Ae0qc5poskcHUnQQ3cJU6mSy/h8I1CIXn6d4nWdOeiAVxYHqLODDBJyr73g0su37UDB3fjKLG3OSI5e/Vtz+4+yLg7+GL27WW/10X3ebwxxHvfuvYsiUiDKRACwN4mNyaA67HxY6Emt6tT+9+ANVRHdzVRtWOugJeVNcwtqA7En08y7VBtpTnIK/6</t>
   </si>
 </sst>
 </file>
@@ -141,11 +92,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,8 +376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,18 +400,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
+++ b/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7116"/>
   </bookViews>
   <sheets>
     <sheet name="ToolResult" sheetId="1" r:id="rId1"/>
@@ -19,44 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>STT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>TelephoneNumber</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>StateProvince</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>CustomerPhoneNumber</t>
+  </si>
+  <si>
+    <t>CustomerEmail</t>
   </si>
   <si>
     <t>CSR</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>Cert Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-----BEGIN CERTIFICATE REQUEST-----
-MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBCMRQwEgYDVQQLDAtD
-b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
-DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
-AAOCAQ8AMIIBCgKCAQEAoVlULf4bVjUPVtl6WxvLWdE2lHGi6t3iTPqIgwMrPM0y
-ag/mz3AQN4njCtyRfHbwb6cIYrmxeNCC9iDqaOcFC1L97s7kH4czXTa5ro4qO34S
-7cKtucQBH+TqRW43gKZknwLCFdnDf07+/ltX9Nsg3u629ZRRKlqn5a8DMUBAqK9s
-ZJYlRek8MAw+XVSJ97JJACXhvmPKHneeb5Ecqtg7Gw7cX4R3lmZc5Gas+g0hShsd
-9YBnNZi7V9GKFA95Om1g3VQUhJLTvd6PWPz3Gltr1mHRU45O2o/MkxnlH0y63zp0
-Gnbb98kr+tsSi1A4gSqWAGX4c6ZUiqk1Boz5bOKSMwIDAQABMA0GCSqGSIb3DQEB
-BQUAA4IBAQA3DPP0Dl2j0kl0yvTriU1Urc0mwsKKWH69nT/C5GyMpba3okHtfqnq
-A6rvuDwWep4XxGcHIx0px8YCxRpAjKzkkIguunniR7/BF9XOzyTBu+vFxsdGCt3C
-1/8gvEA7j73iFSckeB13jEUgFAyMTCvYLlTtS6FsV6BCdl9ecv4W+hEwlcADkqUu
-Ar9CfR+0rdAsrfgeMUYAXeN6tY55azKvfzbSBkcCvh8b7Q6/49Fhr/mFLMiY/x1V
-fstxIX3QDv4qOZPa5wQCW2o/Eyednt2LzAhut5EsvEqko4BlWzFuPThaG052KANJ
-ZDdLD1VmRKdjcCJFYfZGlThwxRv7OKmO
------END CERTIFICATE REQUEST-----
-</t>
-  </si>
-  <si>
-    <t>MIIEFzCCAv+gAwIBAgIQUg2ZAIOhDZYGdNIICqql5jANBgkqhkiG9w0BAQsFADCBozELMAkGA1UEBhMCVk4xMzAxBgNVBAoMKk1pbmlzdHJ5IG9mIEluZm9ybWF0aW9uIGFuZCBDb21tdW5pY2F0aW9uczE8MDoGA1UECwwzTmF0aW9uYWwgQ2VudHJlIG9mIERpZ2l0YWwgU2lnbmF0dXJlIEF1dGhlbnRpY2F0aW9uMSEwHwYDVQQDDBhWaWV0bmFtIE5hdGlvbmFsIFJvb3QgQ0EwHhcNMjExMTA5MDIwMjU2WhcNMjYxMTA4MDIwMjU2WjBAMQswCQYDVQQGEwJWTjEiMCAGA1UECgwZSS1DQSBPTkxJTkUgTUVESUEgVklFVE5BTTENMAsGA1UEAwwESS1DQTCCASIwDQYJKoZIhvcNAQEBBQADggEPADCCAQoCggEBAKX124bkZ1BkanyJXU1FiwJmCewZorjaHxDt1xey+Nw30xRRgcLL14bSpRNvdIlhGGQVZntLcr5euPdMxm9tyRqPruLBiDepSiAqI8Y2koPiufLLfEYy9BHexLV6L3SarMcVxYs/sxEHzpa5oKoNcOU1zU93b0WSwipXhXZoSJ1wuqcDusHiejfbrTCRMKeO/urd8S+sEx0QOIAvwbLbyNcjiGTWIC/13rNp0Yj6z0ioxLsK7WHon2Q9IcyzTAMhJq9bzO2QxxpZhs+5Gb8z/figloco346UCH3HczAAJ6dBNNiF5parP4EffO2hyNoRKBGF7poT6Lo0PEuRgAOrDn8CAwEAAaOBqDCBpTAPBgNVHRMBAf8EBTADAQH/MB8GA1UdIwQYMBaAFDpCowulPxVK/Rq2Ya+6acwTkQAqMEIGA1UdHwQ7MDkwN6A1oDOGMWh0dHBzOi8vbW9iaWxlLWlkLnZuL2Rvd25sb2FkL3RlbXAvbWljcm9vdDI1Ni5jcmwwHQYDVR0OBBYEFIKuRopmlye2dIqcMBpXhLMyqPziMA4GA1UdDwEB/wQEAwIBhjANBgkqhkiG9w0BAQsFAAOCAQEAQkS3E1sDc3SAl0u39pP+XvH+ZF2pHYYaf+q5F7rs2ejteTqBns0tg0hfxzU4mZM79pCYwQDzx2Sfuzk8lglyKcIvi/ogZElgNe161cd9eANwtQuZlXzI13kZRUafwh0b6StXXX8EkUzbjt4DAuQeL45Uxr5PJVWqw0uIdX5uBYRRBJGFAqxrHx/O0pTwZ6WTRYqvkf+Eq65oB8A9lxd8c1lPPG+uKSPAvNOzJhNfwO7VcjndmorES2Zfq+oKDFEt8RxzoLhJ3aAmwWfYQH9a1XSrdPoIDPL39Fh/rRAIRN6dRslAmEdGdv9/DsMBVsm8gyi+KaJrMYf/mwMkVjORFw==MIIENTCCAx2gAwIBAgIQYwQDvZu4oRy9ebDWcubo0DANBgkqhkiG9w0BAQsFADCBozELMAkGA1UEBhMCVk4xMzAxBgNVBAoMKk1pbmlzdHJ5IG9mIEluZm9ybWF0aW9uIGFuZCBDb21tdW5pY2F0aW9uczE8MDoGA1UECwwzTmF0aW9uYWwgQ2VudHJlIG9mIERpZ2l0YWwgU2lnbmF0dXJlIEF1dGhlbnRpY2F0aW9uMSEwHwYDVQQDDBhWaWV0bmFtIE5hdGlvbmFsIFJvb3QgQ0EwHhcNMjEwNTExMTAzODE2WhcNNDEwNTA2MTAzODE2WjCBozELMAkGA1UEBhMCVk4xMzAxBgNVBAoMKk1pbmlzdHJ5IG9mIEluZm9ybWF0aW9uIGFuZCBDb21tdW5pY2F0aW9uczE8MDoGA1UECwwzTmF0aW9uYWwgQ2VudHJlIG9mIERpZ2l0YWwgU2lnbmF0dXJlIEF1dGhlbnRpY2F0aW9uMSEwHwYDVQQDDBhWaWV0bmFtIE5hdGlvbmFsIFJvb3QgQ0EwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCb6eUiU9eMzQwm412Gk64UXQMC2jAbDNkKHQWTuQOA7Bs5aTcFvTdKyydcL040BTlODP0kljQDLG54A0oeWiWU2Db1sUeAw7zri7Enqfct9wduowIYa8832QF7ZuGm7B+9H957t5KYlO4OL/4sVQCf0QxpPjFxlvNVoIKJPCIolJ8F2cSW1KVRBn2LzkpiG8UkyB0SWKDZM94tdSYpWVAm4+/di15YXTDQbRtLz2L40YrpcWKh5PqNbeDBz8HSSGGIDdJEvtQtlvXMjUqcRPK9izAXjjuOhSxdYSFtvORxcI/kBKqfZivXtuOl1Oj62PXFXg3A/gcclULGhxzHxBojAgMBAAGjYzBhMA8GA1UdEwEB/wQFMAMBAf8wHwYDVR0jBBgwFoAUOkKjC6U/FUr9GrZhr7ppzBORACowHQYDVR0OBBYEFDpCowulPxVK/Rq2Ya+6acwTkQAqMA4GA1UdDwEB/wQEAwIBhjANBgkqhkiG9w0BAQsFAAOCAQEAB+3YVRZWqOjyjSaTP7c6Oplo8jfwf16YV/2PTaDrpJHg/vvBKlQCjv8as2uLffhrecfL92BNzY7c9CRgFFo48JRyoTxYSxgildaaFmjKinv1AX6Xvz6j0dpE0aFynCaxEhsATSYOQMjUG73xdv2gmXG5jk9bu+RjPluVxD5YUkwE76IDqMZXEL7EiMEGSstTrsXKPaN4z6YqiTs59XHYZTJv6btmh5IiUNLG3GHZiNWfVlxeEwhXkFoHrV7nMYuQCh3wFK4/OegIgdREWTQsvKpIC15DzASfyp1SJfU9k4R0DY175IIYfTQ6y6o7bp7j7RYQJwgbmaZ3O4Ex4l6Prw==</t>
-  </si>
-  <si>
-    <t>MIIEsjCCA5qgAwIBAgIQVAEBEks9a87DsocTaO00pzANBgkqhkiG9w0BAQsFADBAMQswCQYDVQQGEwJWTjEiMCAGA1UECgwZSS1DQSBPTkxJTkUgTUVESUEgVklFVE5BTTENMAsGA1UEAwwESS1DQTAeFw0yMjA4MDkwNDQ2MDdaFw0yMzA4MTAwNDQ2MDdaMIGYMQswCQYDVQQGEwJWTjEXMBUGA1UECAwOSOG7kyBDaMOtIE1pbmgxGzAZBgNVBAoMEk5ndXllbiBWYW4gVGVzdCAxMDEVMBMGA1UECwwMQ29uZyBUeSBBQkNEMRswGQYDVQQDDBJOZ3V5ZW4gVmFuIFRlc3QgMTAxHzAdBgoJkiaJk/IsZAEBDA9NU1Q6MTIzNDU2NzgwMTAwggEiMA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQChWVQt/htWNQ9W2XpbG8tZ0TaUcaLq3eJM+oiDAys8zTJqD+bPcBA3ieMK3JF8dvBvpwhiubF40IL2IOpo5wULUv3uzuQfhzNdNrmujio7fhLtwq25xAEf5OpFbjeApmSfAsIV2cN/Tv7+W1f02yDe7rb1lFEqWqflrwMxQECor2xkliVF6TwwDD5dVIn3skkAJeG+Y8oed55vkRyq2DsbDtxfhHeWZlzkZqz6DSFKGx31gGc1mLtX0YoUD3k6bWDdVBSEktO93o9Y/PcaW2vWYdFTjk7aj8yTGeUfTLrfOnQadtv3ySv62xKLUDiBKpYAZfhzplSKqTUGjPls4pIzAgMBAAGjggFNMIIBSTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFIKuRopmlye2dIqcMBpXhLMyqPziMDkGCCsGAQUFBwEBBC0wKzApBggrBgEFBQcwAYYdaHR0cDovL29jc3AuaS1jYS52bi9yZXNwb25kZXIwTwYDVR0gBEgwRjBEBgsrBgEEAYHtAwEEATA1MDMGCCsGAQUFBwIBFidodHRwOi8vZGljaHZ1ZGllbnR1LmZwdC5jb20udm4vY3BzLmh0bWwwNAYDVR0lBC0wKwYIKwYBBQUHAwIGCCsGAQUFBwMEBgorBgEEAYI3CgMMBgkqhkiG9y8BAQUwJwYDVR0fBCAwHjAcoBqgGIYWaHR0cDovL2ktY2Eudm4vcHViL2NybDAdBgNVHQ4EFgQUTjIjQWAgjq35sFm2Ao24BX74/mowDgYDVR0PAQH/BAQDAgTwMA0GCSqGSIb3DQEBCwUAA4IBAQBEisExAuBDhLuh/cTn2ksRns2wADGyJDADOn9WVmFWIjU0DLCvjKWUVMOOuSKnDHsfLbL2VKyYq8X57DmL1D8Wx9Yyvl6CJWXSZHsusFWZi2x+Uz41bRaDA38eXvKqnRs6x6idGbZYIvZ81wTV7Mo8Zfr+OE+Ae0qc5poskcHUnQQ3cJU6mSy/h8I1CIXn6d4nWdOeiAVxYHqLODDBJyr73g0su37UDB3fjKLG3OSI5e/Vtz+4+yLg7+GL27WW/10X3ebwxxHvfuvYsiUiDKRACwN4mNyaA67HxY6Emt6tT+9+ANVRHdzVRtWOugJeVNcwtqA7En08y7VBtpTnIK/6</t>
   </si>
 </sst>
 </file>
@@ -374,19 +360,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="46.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,19 +391,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
+++ b/DesktopApp/bin/Release/file/ExportExcelCSR.Dialog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBILE ID\HoTroKH_TichHopRSSP\DesktopApplicationTool\DesktopApp\DesktopApp\bin\Release\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOBILE ID\HoTroKH_TichHopRSSP\DesktopApplicationToolVer_1\DesktopApp\bin\Release\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7116"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="ToolResult" sheetId="1" r:id="rId1"/>
@@ -19,30 +19,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>EmailAddress</t>
-  </si>
-  <si>
-    <t>TelephoneNumber</t>
-  </si>
-  <si>
-    <t>Locality</t>
-  </si>
-  <si>
-    <t>StateProvince</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>CustomerPhoneNumber</t>
-  </si>
-  <si>
-    <t>CustomerEmail</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>STT</t>
   </si>
   <si>
     <t>CSR</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Cert Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-----BEGIN CERTIFICATE REQUEST-----
+MIICtDCCAZwCAQAwcTEVMBMGA1UEAwwMTmd1eWVuIFZhbiBCMRQwEgYDVQQLDAtD
+b25nIFR5IEFCQzEUMBIGA1UECgwLQ29uZyBUeSBBQkMxCzAJBgNVBAYTAlZOMQ8w
+DQYDVQQHDAZRdWFuIDExDjAMBgNVBAgMBVRQSENNMIIBIjANBgkqhkiG9w0BAQEF
+AAOCAQ8AMIIBCgKCAQEAhaKVy/ZIRlf2MJ89cvuecTARkApFe5Ai/jYuMMwTNJDm
+ntpwS81EALpxjDGJjJWL3ZVXuac7CRFgd6a4G9VvHe6Nb1MtrAs5JNQ1yKNtw2nz
+R++mDcxkLlayaYwfQaaqJLjdEcK8//9/DPGYbEDL/oyR+JBLj6j+nuFQH8iWCRBM
+JSj9FhrZ1oFH9z8G6aTqkGmW4i+9Di4MkUETj7F26Dn/G/fZhVAbY2uTI46H229f
+ahvDvpgaoujRjHZHbtYiIXypQfaEHEnH84HX4/ajx6dc8km3RHzuUmryri092+6d
+v6CUUmvBmP9ujqSvrSyzRKDUJ9r7AfJriOB6CNIG0QIDAQABMA0GCSqGSIb3DQEB
+BQUAA4IBAQAd+GNH7DTRtaAlEvwzHWRBU3J/f6P6BbplboJz/1nJqej1bmm0Mcph
+YiFu7jQM1uLTNuddRb2xNDrk7PCP9iRVqTWhSefTqdCmcYSpZmEswS9XHbj7Og5t
+r6rHvD9c+MG+jKQ/dDvHGoS32KRuZnFN7Put+U9LOl78+eJcp/47DMhEWkYg2pJQ
+uaCkoOqdKw1hGpdjo5SKvY4avlkAy1yXHAElSJygdQqxNvX1QuWjuYxwDPDYr2fp
+1bFwFKjA8CvSgis4gC0U97ufiskXWcbwsG/nXs6aRm+Z70mTKpCSUI1LyBvShcFp
+t+lJvpOIAUzjLmJemF8xOO0/04y9ZjEV
+-----END CERTIFICATE REQUEST-----
+</t>
+  </si>
+  <si>
+    <t>"-----BEGIN CERTIFICATE-----
+MIIGNzCCBB+gAwIBAgIMRAm79geyZZnbS4aTMA0GCSqGSIb3DQEBCwUAMIHIMQsw
+CQYDVQQGEwJWTjEUMBIGA1UECBMLSG8gQ2hpIE1pbmgxFDASBgNVBAcTC0hvIENo
+aSBNaW5oMUAwPgYDVQQKEzdNb2JpbGUtSUQgVGVjaG5vbG9naWVzIGFuZCBTZXJ2
+aWNlcyBKb2ludCBTdG9jayBDb21wYW55MScwJQYDVQQLEx5Nb2JpbGUtSUQgVGVj
+aG5pY2FsIERlcGFydG1lbnQxIjAgBgNVBAMTGU1vYmlsZS1JRCBUcnVzdGVkIE5l
+dHdvcmswHhcNMjIwODI2MDg0MTIyWhcNMjMwODI2MDg0MTIyWjBlMQswCQYDVQQG
+EwJWTjEXMBUGA1UECAwOSOG7kyBDaMOtIE1pbmgxGTAXBgNVBAMMEE5ndXnhu4Vu
+IFRo4buLIEExIjAgBgoJkiaJk/IsZAEBDBJDTU5EOjEyMzQ1Njc4OTAwMjcwggEi
+MA0GCSqGSIb3DQEBAQUAA4IBDwAwggEKAoIBAQCFopXL9khGV/Ywnz1y+55xMBGQ
+CkV7kCL+Ni4wzBM0kOae2nBLzUQAunGMMYmMlYvdlVe5pzsJEWB3prgb1W8d7o1v
+Uy2sCzkk1DXIo23DafNH76YNzGQuVrJpjB9BpqokuN0Rwrz//38M8ZhsQMv+jJH4
+kEuPqP6e4VAfyJYJEEwlKP0WGtnWgUf3PwbppOqQaZbiL70OLgyRQROPsXboOf8b
+99mFUBtja5Mjjofbb19qG8O+mBqi6NGMdkdu1iIhfKlB9oQcScfzgdfj9qPHp1zy
+SbdEfO5SavKuLT3b7p2/oJRSa8GY/26OpK+tLLNEoNQn2vsB8muI4HoI0gbRAgMB
+AAGjggGBMIIBfTAMBgNVHRMBAf8EAjAAMB8GA1UdIwQYMBaAFPNkMn2yPF3lLuBJ
+fLTqYhWUeC6rMHIGCCsGAQUFBwEBBGYwZDAyBggrBgEFBQcwAoYmaHR0cHM6Ly9t
+b2JpbGUtaWQudm4vcGtpL21vYmlsZS1pZC5jcnQwLgYIKwYBBQUHMAGGImh0dHA6
+Ly9tb2JpbGUtaWQudm4vb2NzcC9yZXNwb25kZXIwRQYDVR0gBD4wPDA6BgsrBgEE
+AYHtAwEEATArMCkGCCsGAQUFBwIBFh1odHRwczovL21vYmlsZS1pZC52bi9jcHMu
+aHRtbDA0BgNVHSUELTArBggrBgEFBQcDAgYIKwYBBQUHAwQGCisGAQQBgjcKAwwG
+CSqGSIb3LwEBBTAsBgNVHR8EJTAjMCGgH6AdhhtodHRwOi8vbW9iaWxlLWlkLnZu
+L2NybC9nZXQwHQYDVR0OBBYEFLbHB/kYfGcyXLZ9RPitz2Wc/9J4MA4GA1UdDwEB
+/wQEAwIE8DANBgkqhkiG9w0BAQsFAAOCAgEAAfr0EXC90vc6zBJYP5BG7l/1IASG
+yhcKJ2qtTE/9dI/USn1ItC+bh5JD/l70k1ayzeXsnU2zdK1YPB8HERYTOZwkwiyb
+QP+zyK2po12qSET0YfMbJ2kB/B3eZCmJ0B1tfYIxI5D7H8PsjpYBjtjff0kpqngO
+H/DqPGw+hpbzTaTrWeXf2CwJkFCnIJH/z6Qb6vXeMLJlPjk/QY/NU6XlPi2shkgo
+YhadoPsYRyWRiSXy3hXyu5/DQiXwfIAjtM+Uk6z4dsxdlrb8RevfnFbdtlV+ROOF
+3HPPkPpko1AoJlKnJxujS4Ns0CuxRZcvPsceNRUuEu99aD3GDKqT8VjITJY40ffo
+XN2eFif3SIJobC+mCWFaljazXPFC2y8GLFCpXAMzJJizRsg8jeCyZpylec33x3LG
+U5LIMoTJwXYrC1tXYOFAJnr0jxRsyuDs5BHLtCVP2C0BI+QIpoUoci7Z9/p/QtAQ
+jxT3aux6rPbsFMoSA/ZhAh51YcdMkpOaz7qpbuQeb/P0SU9xKfhKnUQRkB/xGcyG
+dgUKOnlsUP/7dDPQbgskMHTDVMpy4+ngnpyrLhW9nkMSMFhp46loYaH3id88lqsp
+xDZRc38GJwvUqFd2Q00Xq8latjeYpVKSrgV8KShqqDAzB7VqP2A9E0deq/z419G0
+KVMqI733LWSomWA=
+-----END CERTIFICATE-----"</t>
+  </si>
+  <si>
+    <t>"                                -----BEGIN CERTIFICATE-----
+MIIGRDCCBCygAwIBAgIEVfAPITANBgkqhkiG9w0BAQsFADCByDELMAkGA1UEBhMC
+Vk4xFDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFA
+MD4GA1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9p
+bnQgU3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBE
+ZXBhcnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMCAX
+DTE3MDQyMTAyNTA1MVoYDzIxMTcwMzI4MDI1MDUxWjCByDELMAkGA1UEBhMCVk4x
+FDASBgNVBAgTC0hvIENoaSBNaW5oMRQwEgYDVQQHEwtIbyBDaGkgTWluaDFAMD4G
+A1UEChM3TW9iaWxlLUlEIFRlY2hub2xvZ2llcyBhbmQgU2VydmljZXMgSm9pbnQg
+U3RvY2sgQ29tcGFueTEnMCUGA1UECxMeTW9iaWxlLUlEIFRlY2huaWNhbCBEZXBh
+cnRtZW50MSIwIAYDVQQDExlNb2JpbGUtSUQgVHJ1c3RlZCBOZXR3b3JrMIICIjAN
+BgkqhkiG9w0BAQEFAAOCAg8AMIICCgKCAgEAjtHJbKRUfVPE3vr7SjROLgQYO1bT
+i+WgIinSsLn9XGj7gjO4cx8ejs9I8IGrx2q5Wzcrcavi5nxRzoKbO8EVkR+F69Ux
+gF54e8Nfe76i3v8BGTk8vngpvQrndN8uE6YiQ/G0s5hLi/gZfffcMTlMQrlwYdRp
+EMhn6nNoF675xpaBk15+epa7SjXbgGvCkA0CkR+SKvhd4pnMORZ2/jpQvLG5DQIz
+QLApAmWHcoexFxTgPzuw2qhinWPO07X/H5pz5dAAKhflI451OG2PZCloZEo1lemm
+spm3azFlaYzkbLPI+GsV61PB/AQEIKq9tXLCuyYbpXYqOlbFP8LYGyfumdOwS2/L
+FKwHGLAdlofCGI0eMp/dsa+aL+My8Rqv0S0PhClcnvDaSCIYBPDgI5wW4u/sr3Wz
+5n5f4Z3k5vJi0GU8l0FroNsFCN8EOc/vM+wgm+Uol74FrEo0LpT8TUWh71HUF29s
+BxtEQ8Zw5YpUMCTcPuBsVRwuLGGae8VKpPc4jEwpGmvoGj8cfS2qoEMNPtRnGM3K
+t+q39zLoDk+6Kmr5oi8XVfZmibXRtNvrixMj6jAEm/3Vag9VdQ4SR+QFwpJOcIOB
+tX9mDnamXnBHWFqGUqOUU9/6y4p8B2o3RDE/WeiWtU66gQZasli6TJb0RpNoY/Xy
+XHGn+J0gd9EDXn0CAwEAAaMyMDAwDwYDVR0TAQH/BAUwAwEB/zAdBgNVHQ4EFgQU
+82QyfbI8XeUu4El8tOpiFZR4LqswDQYJKoZIhvcNAQELBQADggIBAI3hBTzed1Zt
+Dh5DvdidSJoGRBXJQ24Y3VjxPbelLNxnZiYCiSIQhL7KIjmDZOBQJwqlBxWOsao7
+PuRaohdAcDQ2jImeiIAmkRaTcUWZgB++IuS1ta01XMcAEp/taQEjHKjwAr22IILN
+Vk9z0WNVf5Pd9NWMu4lFqwECpKTJnToIqEGVVWcqAAupGT64LQ/Cf+/oEpDtkRaV
+azFj7ob1Rxjl5hmOxMwNHW8wRPcq8glg+26Tp9jqcaw32fhfnUPDHBdoYcU/VhMk
+gBeYXGHTPHp32Kj4l/QxWnxY0IvChyq+Qao1D19K5PbJQH5A5bQbwqgBtMihsdrG
+Sr9VJ7LtNmBc+8dNchqi2uXs3ryk8htDluZ60yWK89eRO1NatB2tiDLh5iwejJRi
+eOoyQ3Iq8m/IjtEJTs7ehWJHtiGj2U/tlpVW2fSszoz0TbKxXQPQ/dGNmDorqrM/
+0WEY6lkNEp7qbXB1U378PFUKFh1lIdlfNrgoEvYt0XeIMbXn+fUkB8munP0bCSiJ
+qX7gK+2FuZqfA038JfuwxDBr8SvkkvZOqyUgMPAPRpQCjmFrZgMrilHUokZIL5+C
+z4qaxEf3s3xORy+CuPMousfrOKpdf6jFjnyD8cr4Ez4bMAekPg4F4JJ0WHpOchSl
+DP5a57cb6mHYvOF8ygSobADyNeQ1jkjg
+-----END CERTIFICATE-----
+                            "</t>
   </si>
 </sst>
 </file>
@@ -78,8 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,25 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="46.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,17 +473,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
